--- a/300144_宋城演艺/宋城演艺.xlsx
+++ b/300144_宋城演艺/宋城演艺.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="440" yWindow="460" windowWidth="25600" windowHeight="14780" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14780" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="122">
   <si>
     <t>年份</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1236,6 +1236,69 @@
     </rPh>
     <rPh sb="2" eb="3">
       <t>gu'zhi</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>当前市值</t>
+    <rPh sb="0" eb="1">
+      <t>dang'qian</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>shi'zhi</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>总股数</t>
+    <rPh sb="0" eb="1">
+      <t>zong'gu'shu</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>目标股价</t>
+    <rPh sb="0" eb="1">
+      <t>mu'biao</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>gu'jia</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>目标涨幅</t>
+    <rPh sb="0" eb="1">
+      <t>mu'biao</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>zhang'fu</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>平均增长</t>
+    <rPh sb="0" eb="1">
+      <t>ping'jun</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>zeng'zhang</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>近5年平均增长</t>
+    <rPh sb="0" eb="1">
+      <t>jin</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>nian</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ping'jun</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>zeng'zhang</t>
     </rPh>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1307,7 +1370,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1329,12 +1392,6 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1347,6 +1404,13 @@
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4825,10 +4889,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K14"/>
+  <dimension ref="A1:L15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4840,13 +4904,13 @@
     <col min="6" max="6" width="15" customWidth="1"/>
     <col min="7" max="7" width="17.5" customWidth="1"/>
     <col min="8" max="8" width="15.83203125" customWidth="1"/>
-    <col min="9" max="9" width="13.33203125" customWidth="1"/>
+    <col min="9" max="9" width="16.1640625" customWidth="1"/>
     <col min="10" max="10" width="16.83203125" customWidth="1"/>
     <col min="11" max="11" width="16.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2" spans="1:11" ht="21" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="2" spans="1:12" ht="21" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>66</v>
       </c>
@@ -4881,7 +4945,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="21" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" ht="21" x14ac:dyDescent="0.3">
       <c r="A3" s="10" t="s">
         <v>110</v>
       </c>
@@ -4916,7 +4980,7 @@
         <v>1277557771.6300001</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>69</v>
       </c>
@@ -4957,164 +5021,209 @@
         <v>0.19478969394729037</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A7" s="18" t="s">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>120</v>
+      </c>
+      <c r="B5" s="2">
+        <f>AVERAGE(D4:K4)</f>
+        <v>0.36557856718728066</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>121</v>
+      </c>
+      <c r="B6" s="2">
+        <f>AVERAGE(G4:K4)</f>
+        <v>0.34647063490820784</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A8" s="16" t="s">
         <v>111</v>
       </c>
-      <c r="B7" s="18" t="s">
+      <c r="B8" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="C7" s="18" t="s">
+      <c r="C8" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="D7" s="18" t="s">
+      <c r="D8" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="E7" s="18" t="s">
+      <c r="E8" s="16" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A8" s="19">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9" s="17">
         <v>1277557771.6300001</v>
       </c>
-      <c r="B8" s="18">
+      <c r="B9" s="16">
         <v>0.05</v>
       </c>
-      <c r="C8" s="18">
-        <v>15</v>
-      </c>
-      <c r="D8" s="18">
+      <c r="C9" s="16">
+        <v>21</v>
+      </c>
+      <c r="D9" s="16">
         <v>0.18</v>
       </c>
-      <c r="E8" s="18">
+      <c r="E9" s="16">
         <v>0.7</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A9" s="1"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A10" s="18"/>
-      <c r="B10" s="20">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10" s="1"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A11" s="16"/>
+      <c r="B11" s="18">
         <v>0.18</v>
       </c>
-      <c r="C10" s="20">
+      <c r="C11" s="18">
         <v>0.18</v>
       </c>
-      <c r="D10" s="20">
+      <c r="D11" s="18">
         <v>0.18</v>
       </c>
-      <c r="E10" s="20">
+      <c r="E11" s="18">
         <v>0.18</v>
       </c>
-      <c r="F10" s="20">
+      <c r="F11" s="18">
         <v>0.18</v>
       </c>
-      <c r="G10" s="18"/>
-      <c r="H10" s="18"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A11" s="18" t="s">
+      <c r="G11" s="16"/>
+      <c r="H11" s="16"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A12" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="B11" s="18">
+      <c r="B12" s="16">
         <v>2019</v>
       </c>
-      <c r="C11" s="18">
+      <c r="C12" s="16">
         <v>2020</v>
       </c>
-      <c r="D11" s="18">
+      <c r="D12" s="16">
         <v>2021</v>
       </c>
-      <c r="E11" s="18">
+      <c r="E12" s="16">
         <v>2022</v>
       </c>
-      <c r="F11" s="18">
+      <c r="F12" s="16">
         <v>2023</v>
       </c>
-      <c r="G11" s="18"/>
-      <c r="H11" s="18" t="s">
+      <c r="G12" s="16"/>
+      <c r="H12" s="16" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A12" s="18" t="s">
+      <c r="I12" t="s">
+        <v>116</v>
+      </c>
+      <c r="J12" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="K12" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="L12" s="16" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A13" s="16" t="s">
         <v>112</v>
       </c>
-      <c r="B12" s="21">
-        <f>A8*(1+D8)</f>
+      <c r="B13" s="19">
+        <f>A9*(1+D9)</f>
         <v>1507518170.5234001</v>
       </c>
-      <c r="C12" s="21">
-        <f>B12*(1+D8)</f>
+      <c r="C13" s="19">
+        <f>B13*(1+D9)</f>
         <v>1778871441.217612</v>
       </c>
-      <c r="D12" s="21">
-        <f>C12*(1+D8)</f>
+      <c r="D13" s="19">
+        <f>C13*(1+D9)</f>
         <v>2099068300.6367822</v>
       </c>
-      <c r="E12" s="21">
-        <f>D12*(1+D8)</f>
+      <c r="E13" s="19">
+        <f>D13*(1+D9)</f>
         <v>2476900594.7514029</v>
       </c>
-      <c r="F12" s="21">
-        <f>E12*(1+D8)</f>
+      <c r="F13" s="19">
+        <f>E13*(1+D9)</f>
         <v>2922742701.8066554</v>
       </c>
-      <c r="G12" s="21">
-        <f>F12*C8</f>
-        <v>43841140527.099831</v>
-      </c>
-      <c r="H12" s="18"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A13" s="18" t="s">
+      <c r="G13" s="19">
+        <f>F13*C9</f>
+        <v>61377596737.939766</v>
+      </c>
+      <c r="H13" s="16"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A14" s="16" t="s">
         <v>113</v>
       </c>
-      <c r="B13" s="19">
-        <f>B12/(1+B8)</f>
+      <c r="B14" s="17">
+        <f>B13/(1+B9)</f>
         <v>1435731590.9746666</v>
       </c>
-      <c r="C13" s="19">
-        <f>C12/(1+B8)^2</f>
+      <c r="C14" s="17">
+        <f>C13/(1+B9)^2</f>
         <v>1613488835.5715301</v>
       </c>
-      <c r="D13" s="19">
-        <f>D12/(1+B8)^3</f>
+      <c r="D14" s="17">
+        <f>D13/(1+B9)^3</f>
         <v>1813254119.9756241</v>
       </c>
-      <c r="E13" s="19">
-        <f>E12/(1+B8)^4</f>
+      <c r="E14" s="17">
+        <f>E13/(1+B9)^4</f>
         <v>2037752249.1154635</v>
       </c>
-      <c r="F13" s="19">
-        <f>F12/(1+B8)^5</f>
+      <c r="F14" s="17">
+        <f>F13/(1+B9)^5</f>
         <v>2290045384.7202349</v>
       </c>
-      <c r="G13" s="19">
-        <f>G12/(1+B8)^4</f>
-        <v>36068214809.343704</v>
-      </c>
-      <c r="H13" s="19">
-        <f>SUM(B13:G13)</f>
-        <v>45258486989.701225</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A14" s="18"/>
-      <c r="B14" s="19"/>
-      <c r="C14" s="19"/>
-      <c r="D14" s="19"/>
-      <c r="E14" s="19"/>
-      <c r="F14" s="19"/>
-      <c r="G14" s="19" t="s">
+      <c r="G14" s="17">
+        <f>G13/(1+B9)^4</f>
+        <v>50495500733.081184</v>
+      </c>
+      <c r="H14" s="17">
+        <f>SUM(B14:G14)</f>
+        <v>59685772913.438705</v>
+      </c>
+      <c r="I14" s="1">
+        <v>35800000000</v>
+      </c>
+      <c r="J14" s="20">
+        <v>1452607800</v>
+      </c>
+      <c r="K14">
+        <f>H14/J14</f>
+        <v>41.088704682322856</v>
+      </c>
+      <c r="L14" s="2">
+        <f>H14/I14</f>
+        <v>1.6672003607105783</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A15" s="16"/>
+      <c r="B15" s="17"/>
+      <c r="C15" s="17"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="17"/>
+      <c r="G15" s="17" t="s">
         <v>115</v>
       </c>
-      <c r="H14" s="19">
-        <f>H13*E8</f>
-        <v>31680940892.790855</v>
-      </c>
+      <c r="H15" s="17">
+        <f>H14*E9</f>
+        <v>41780041039.407089</v>
+      </c>
+      <c r="I15" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -5843,7 +5952,7 @@
       </c>
       <c r="P11" s="9"/>
       <c r="Q11" s="9"/>
-      <c r="R11" s="17">
+      <c r="R11" s="15">
         <v>15668597.439999999</v>
       </c>
       <c r="S11" s="9">
@@ -6097,22 +6206,22 @@
       <c r="AA15" s="9"/>
     </row>
     <row r="16" spans="1:28" ht="170" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="15" t="s">
+      <c r="A16" s="21" t="s">
         <v>109</v>
       </c>
-      <c r="B16" s="16"/>
-      <c r="C16" s="16"/>
-      <c r="D16" s="16"/>
-      <c r="E16" s="16"/>
-      <c r="F16" s="16"/>
-      <c r="G16" s="16"/>
-      <c r="H16" s="16"/>
-      <c r="I16" s="16"/>
-      <c r="J16" s="16"/>
-      <c r="K16" s="16"/>
-      <c r="L16" s="16"/>
-      <c r="M16" s="16"/>
-      <c r="N16" s="16"/>
+      <c r="B16" s="22"/>
+      <c r="C16" s="22"/>
+      <c r="D16" s="22"/>
+      <c r="E16" s="22"/>
+      <c r="F16" s="22"/>
+      <c r="G16" s="22"/>
+      <c r="H16" s="22"/>
+      <c r="I16" s="22"/>
+      <c r="J16" s="22"/>
+      <c r="K16" s="22"/>
+      <c r="L16" s="22"/>
+      <c r="M16" s="22"/>
+      <c r="N16" s="22"/>
       <c r="O16" s="9"/>
       <c r="P16" s="9"/>
       <c r="Q16" s="9"/>

--- a/300144_宋城演艺/宋城演艺.xlsx
+++ b/300144_宋城演艺/宋城演艺.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14780" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14780" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="123">
   <si>
     <t>年份</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1301,6 +1301,9 @@
       <t>zeng'zhang</t>
     </rPh>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>营业收入</t>
   </si>
 </sst>
 </file>
@@ -4891,7 +4894,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
@@ -6305,14 +6308,121 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="B3:L5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <sheetData>
+    <row r="3" spans="2:12" ht="21" x14ac:dyDescent="0.3">
+      <c r="B3" s="10"/>
+      <c r="C3" s="10">
+        <v>2009</v>
+      </c>
+      <c r="D3" s="10">
+        <v>2010</v>
+      </c>
+      <c r="E3" s="10">
+        <v>2011</v>
+      </c>
+      <c r="F3" s="10">
+        <v>2012</v>
+      </c>
+      <c r="G3" s="10">
+        <v>2013</v>
+      </c>
+      <c r="H3" s="10">
+        <v>2014</v>
+      </c>
+      <c r="I3" s="10">
+        <v>2015</v>
+      </c>
+      <c r="J3" s="10">
+        <v>2016</v>
+      </c>
+      <c r="K3" s="10">
+        <v>2017</v>
+      </c>
+      <c r="L3" s="10">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12" ht="21" x14ac:dyDescent="0.3">
+      <c r="B4" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="C4" s="10">
+        <v>273</v>
+      </c>
+      <c r="D4" s="10">
+        <v>445</v>
+      </c>
+      <c r="E4" s="10">
+        <v>505</v>
+      </c>
+      <c r="F4" s="10">
+        <v>586</v>
+      </c>
+      <c r="G4" s="10">
+        <v>679</v>
+      </c>
+      <c r="H4" s="10">
+        <v>935</v>
+      </c>
+      <c r="I4" s="10">
+        <v>1695</v>
+      </c>
+      <c r="J4" s="10">
+        <v>2644</v>
+      </c>
+      <c r="K4" s="10">
+        <v>3024</v>
+      </c>
+      <c r="L4" s="10">
+        <v>3211</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="D5" s="2">
+        <f>(D4-C4)/C4</f>
+        <v>0.63003663003663002</v>
+      </c>
+      <c r="E5" s="2">
+        <f t="shared" ref="E5:L5" si="0">(E4-D4)/D4</f>
+        <v>0.1348314606741573</v>
+      </c>
+      <c r="F5" s="2">
+        <f t="shared" si="0"/>
+        <v>0.1603960396039604</v>
+      </c>
+      <c r="G5" s="2">
+        <f t="shared" si="0"/>
+        <v>0.15870307167235495</v>
+      </c>
+      <c r="H5" s="2">
+        <f t="shared" si="0"/>
+        <v>0.37702503681885124</v>
+      </c>
+      <c r="I5" s="2">
+        <f t="shared" si="0"/>
+        <v>0.81283422459893051</v>
+      </c>
+      <c r="J5" s="2">
+        <f t="shared" si="0"/>
+        <v>0.55988200589970505</v>
+      </c>
+      <c r="K5" s="2">
+        <f t="shared" si="0"/>
+        <v>0.1437216338880484</v>
+      </c>
+      <c r="L5" s="2">
+        <f t="shared" si="0"/>
+        <v>6.1838624338624339E-2</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/300144_宋城演艺/宋城演艺.xlsx
+++ b/300144_宋城演艺/宋城演艺.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14780" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14780" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -4894,8 +4894,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5070,7 +5070,7 @@
         <v>21</v>
       </c>
       <c r="D9" s="16">
-        <v>0.18</v>
+        <v>0.1</v>
       </c>
       <c r="E9" s="16">
         <v>0.7</v>
@@ -5141,27 +5141,27 @@
       </c>
       <c r="B13" s="19">
         <f>A9*(1+D9)</f>
-        <v>1507518170.5234001</v>
+        <v>1405313548.7930002</v>
       </c>
       <c r="C13" s="19">
         <f>B13*(1+D9)</f>
-        <v>1778871441.217612</v>
+        <v>1545844903.6723003</v>
       </c>
       <c r="D13" s="19">
         <f>C13*(1+D9)</f>
-        <v>2099068300.6367822</v>
+        <v>1700429394.0395305</v>
       </c>
       <c r="E13" s="19">
         <f>D13*(1+D9)</f>
-        <v>2476900594.7514029</v>
+        <v>1870472333.4434838</v>
       </c>
       <c r="F13" s="19">
         <f>E13*(1+D9)</f>
-        <v>2922742701.8066554</v>
+        <v>2057519566.7878323</v>
       </c>
       <c r="G13" s="19">
         <f>F13*C9</f>
-        <v>61377596737.939766</v>
+        <v>43207910902.544479</v>
       </c>
       <c r="H13" s="16"/>
     </row>
@@ -5171,31 +5171,31 @@
       </c>
       <c r="B14" s="17">
         <f>B13/(1+B9)</f>
-        <v>1435731590.9746666</v>
+        <v>1338393855.9933336</v>
       </c>
       <c r="C14" s="17">
         <f>C13/(1+B9)^2</f>
-        <v>1613488835.5715301</v>
+        <v>1402126896.754921</v>
       </c>
       <c r="D14" s="17">
         <f>D13/(1+B9)^3</f>
-        <v>1813254119.9756241</v>
+        <v>1468894844.2194409</v>
       </c>
       <c r="E14" s="17">
         <f>E13/(1+B9)^4</f>
-        <v>2037752249.1154635</v>
+        <v>1538842217.7537005</v>
       </c>
       <c r="F14" s="17">
         <f>F13/(1+B9)^5</f>
-        <v>2290045384.7202349</v>
+        <v>1612120418.5991147</v>
       </c>
       <c r="G14" s="17">
         <f>G13/(1+B9)^4</f>
-        <v>50495500733.081184</v>
+        <v>35547255230.110481</v>
       </c>
       <c r="H14" s="17">
         <f>SUM(B14:G14)</f>
-        <v>59685772913.438705</v>
+        <v>42907633463.430992</v>
       </c>
       <c r="I14" s="1">
         <v>35800000000</v>
@@ -5205,11 +5205,11 @@
       </c>
       <c r="K14">
         <f>H14/J14</f>
-        <v>41.088704682322856</v>
+        <v>29.538347146030052</v>
       </c>
       <c r="L14" s="2">
         <f>H14/I14</f>
-        <v>1.6672003607105783</v>
+        <v>1.1985372475818712</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
@@ -5224,7 +5224,7 @@
       </c>
       <c r="H15" s="17">
         <f>H14*E9</f>
-        <v>41780041039.407089</v>
+        <v>30035343424.401691</v>
       </c>
       <c r="I15" s="1"/>
     </row>
@@ -5239,12 +5239,12 @@
   <dimension ref="A2:AB18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="14" customWidth="1"/>
+    <col min="2" max="2" width="16.83203125" customWidth="1"/>
     <col min="3" max="3" width="13.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.1640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.83203125" customWidth="1"/>
@@ -6310,7 +6310,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:L5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>

--- a/300144_宋城演艺/宋城演艺.xlsx
+++ b/300144_宋城演艺/宋城演艺.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26812"/>
-  <workbookPr filterPrivacy="1"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/external/git/stock_learn/300144_宋城演艺/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14780" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="25605" windowHeight="14775" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,21 +13,49 @@
     <sheet name="现金流净利润比" sheetId="4" r:id="rId4"/>
     <sheet name="应收" sheetId="7" r:id="rId5"/>
     <sheet name="存货" sheetId="6" r:id="rId6"/>
+    <sheet name="营收分析" sheetId="8" r:id="rId7"/>
+    <sheet name="Sheet3" sheetId="9" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="162913" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
-    </ext>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>作者</author>
+  </authors>
+  <commentList>
+    <comment ref="E30" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">作者:
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="138">
   <si>
     <t>年份</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1305,17 +1328,91 @@
   <si>
     <t>营业收入</t>
   </si>
+  <si>
+    <t>营业收入</t>
+    <rPh sb="0" eb="1">
+      <t>gu'dong</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>jing'li'run</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>年份</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>roe</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>杭州宋城</t>
+    <rPh sb="0" eb="1">
+      <t>gu'dong</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>jing'li'run</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>三亚宋城</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>丽江宋城</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>九寨沟宋城</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>桂林宋城</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>张家界宋城</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>数字娱乐平台</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>电子商务手续费</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>设计策划费</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>杭州宋城占比</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>总营业收入</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="5">
     <numFmt numFmtId="176" formatCode="#,##0.00_ "/>
     <numFmt numFmtId="177" formatCode="#,##0.00;[Red]#,##0.00"/>
     <numFmt numFmtId="178" formatCode="#,##0.00_ ;[Red]\-#,##0.00\ "/>
+    <numFmt numFmtId="184" formatCode="yyyy"/>
+    <numFmt numFmtId="185" formatCode="#,##0.00_);[Red]\(#,##0.00\)"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1352,6 +1449,27 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1373,7 +1491,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1415,6 +1533,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="184" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="185" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1430,6 +1555,3062 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>现金流净利润比!$G$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>现利比</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="175000"/>
+                  <a:alpha val="14000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="75000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="zh-CN"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1">
+                          <a:lumMod val="50000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>现金流净利润比!$A$4:$A$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2010</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>现金流净利润比!$G$4:$G$14</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1.1513279045845566</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.2893692830096661</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.6497329688623965</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.1241559064395785</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.418123941490099</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.4476819945078114</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.3905423554329464</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.591413611657851</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.3273063399198148</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.5327726238970718</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.341159802994087</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0C8B-4E95-ABE5-70711C5E00C6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="ctr"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="561370175"/>
+        <c:axId val="678820655"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="561370175"/>
+        <c:scaling>
+          <c:orientation val="maxMin"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="0">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="678820655"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="678820655"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="0">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="561370175"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>营收分析!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>营业收入</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="34925" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="85000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="zh-CN"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1">
+                          <a:lumMod val="95000"/>
+                          <a:alpha val="54000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>营收分析!$A$2:$A$11</c:f>
+              <c:numCache>
+                <c:formatCode>yyyy</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>40543</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>40908</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>41274</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>41639</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>42004</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>42369</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>42735</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>43100</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>43465</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>43830</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>营收分析!$B$2:$B$11</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0.00_ ;[Red]\-#,##0.00\ </c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>444756700</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>504532200</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>586157100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>678715900</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>935119100</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1694514000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2644229000</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="#,##0.00_ ">
+                  <c:v>3023831000</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="#,##0.00_ ">
+                  <c:v>3211193000</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="#,##0.00_ ">
+                  <c:v>2611753000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A40E-4BAF-98EB-CBE3A9EF0755}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="t"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="560421455"/>
+        <c:axId val="560436015"/>
+      </c:lineChart>
+      <c:dateAx>
+        <c:axId val="560421455"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="yyyy" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="95000"/>
+                <a:alpha val="10000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="560436015"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblOffset val="100"/>
+        <c:baseTimeUnit val="years"/>
+      </c:dateAx>
+      <c:valAx>
+        <c:axId val="560436015"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                  <a:alpha val="10000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="#,##0.00_ ;[Red]\-#,##0.00\ " sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="560421455"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="85000"/>
+            <a:lumOff val="15000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>roe</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="175000"/>
+                  <a:alpha val="14000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="3"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:glow rad="63500">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="175000"/>
+                    <a:alpha val="25000"/>
+                  </a:schemeClr>
+                </a:glow>
+              </a:effectLst>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="75000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="zh-CN"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1">
+                          <a:lumMod val="50000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet3!$A$2:$A$11</c:f>
+              <c:numCache>
+                <c:formatCode>yyyy</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>40543</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>40908</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>41274</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>41639</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>42004</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>42369</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>42735</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>43100</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>43465</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>43830</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet3!$B$2:$B$11</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.11672299999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.4862999999999994E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.1761999999999996E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.102404</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.110029</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.13964099999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.15029999999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.15546399999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.16292000000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.14816499999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4246-476D-AE54-FAD02FA51716}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="t"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="560417295"/>
+        <c:axId val="560429359"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="560417295"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                  <a:alpha val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="yyyy" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="560429359"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="560429359"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                  <a:alpha val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="560417295"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="236">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="15000"/>
+        <a:lumOff val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="139700">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="14000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:lumMod val="60000"/>
+          <a:lumOff val="40000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="4"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="75000"/>
+                <a:lumOff val="25000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="65000"/>
+                <a:lumOff val="35000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="75000"/>
+                <a:lumOff val="25000"/>
+                <a:alpha val="25000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="65000"/>
+                <a:lumOff val="35000"/>
+                <a:alpha val="25000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="1" kern="1200" cap="none" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="233">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="34925" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="5000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:defRPr>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="245">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="15000"/>
+        <a:lumOff val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="139700">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="14000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:lumMod val="60000"/>
+          <a:lumOff val="40000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="3"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+            <a:alpha val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="1" kern="1200" cap="none" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>214312</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>1609725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>795337</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="图表 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>619125</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>19049</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="图表 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>119061</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>28574</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>85724</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="图表 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1701,24 +4882,24 @@
       <selection activeCell="G94" sqref="G94"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
   <cols>
-    <col min="2" max="2" width="20.33203125" customWidth="1"/>
-    <col min="3" max="3" width="19.83203125" customWidth="1"/>
-    <col min="4" max="5" width="17.33203125" customWidth="1"/>
-    <col min="6" max="6" width="16.1640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.1640625" customWidth="1"/>
-    <col min="8" max="8" width="16.1640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.6640625" customWidth="1"/>
-    <col min="11" max="11" width="18.33203125" customWidth="1"/>
-    <col min="12" max="12" width="22.1640625" customWidth="1"/>
-    <col min="13" max="13" width="19.83203125" customWidth="1"/>
+    <col min="2" max="2" width="20.375" customWidth="1"/>
+    <col min="3" max="3" width="19.875" customWidth="1"/>
+    <col min="4" max="5" width="17.375" customWidth="1"/>
+    <col min="6" max="6" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.125" customWidth="1"/>
+    <col min="8" max="8" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.625" customWidth="1"/>
+    <col min="11" max="11" width="18.375" customWidth="1"/>
+    <col min="12" max="12" width="22.125" customWidth="1"/>
+    <col min="13" max="13" width="19.875" customWidth="1"/>
     <col min="14" max="14" width="17" customWidth="1"/>
-    <col min="15" max="15" width="16.83203125" customWidth="1"/>
+    <col min="15" max="15" width="16.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:23">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -1750,7 +4931,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:23">
       <c r="A4">
         <v>2018</v>
       </c>
@@ -1795,7 +4976,7 @@
       <c r="V4" s="1"/>
       <c r="W4" s="1"/>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23">
       <c r="A5">
         <v>2017</v>
       </c>
@@ -1840,7 +5021,7 @@
       <c r="V5" s="1"/>
       <c r="W5" s="1"/>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23">
       <c r="A6">
         <v>2016</v>
       </c>
@@ -1867,7 +5048,7 @@
       <c r="V6" s="1"/>
       <c r="W6" s="1"/>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23">
       <c r="A7">
         <v>2015</v>
       </c>
@@ -1894,7 +5075,7 @@
       <c r="V7" s="1"/>
       <c r="W7" s="1"/>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23">
       <c r="A8">
         <v>2014</v>
       </c>
@@ -1921,7 +5102,7 @@
       <c r="V8" s="1"/>
       <c r="W8" s="1"/>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23">
       <c r="A9">
         <v>2013</v>
       </c>
@@ -1948,7 +5129,7 @@
       <c r="V9" s="1"/>
       <c r="W9" s="1"/>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23">
       <c r="A10">
         <v>2012</v>
       </c>
@@ -1975,7 +5156,7 @@
       <c r="V10" s="1"/>
       <c r="W10" s="1"/>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23">
       <c r="A11">
         <v>2011</v>
       </c>
@@ -2002,7 +5183,7 @@
       <c r="V11" s="1"/>
       <c r="W11" s="1"/>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:23">
       <c r="A12">
         <v>2016</v>
       </c>
@@ -2029,7 +5210,7 @@
       <c r="V12" s="1"/>
       <c r="W12" s="1"/>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:23">
       <c r="A13">
         <v>2016</v>
       </c>
@@ -2056,12 +5237,12 @@
       <c r="V13" s="1"/>
       <c r="W13" s="1"/>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:23">
       <c r="A14">
         <v>2016</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:16">
       <c r="A17" t="s">
         <v>10</v>
       </c>
@@ -2096,7 +5277,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:16">
       <c r="A18">
         <v>2018</v>
       </c>
@@ -2141,7 +5322,7 @@
       <c r="O18" s="1"/>
       <c r="P18" s="1"/>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:16">
       <c r="A19">
         <v>2017</v>
       </c>
@@ -2186,7 +5367,7 @@
       <c r="O19" s="1"/>
       <c r="P19" s="1"/>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:16">
       <c r="B20" s="1"/>
       <c r="C20" s="2" t="e">
         <f t="shared" si="0"/>
@@ -2215,7 +5396,7 @@
       <c r="O20" s="1"/>
       <c r="P20" s="1"/>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:16">
       <c r="B21" s="1"/>
       <c r="C21" s="2" t="e">
         <f t="shared" si="0"/>
@@ -2244,7 +5425,7 @@
       <c r="O21" s="1"/>
       <c r="P21" s="1"/>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:16">
       <c r="B22" s="1"/>
       <c r="C22" s="2" t="e">
         <f t="shared" si="0"/>
@@ -2273,7 +5454,7 @@
       <c r="O22" s="1"/>
       <c r="P22" s="1"/>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:16">
       <c r="B23" s="1"/>
       <c r="C23" s="2" t="e">
         <f t="shared" si="0"/>
@@ -2302,7 +5483,7 @@
       <c r="O23" s="1"/>
       <c r="P23" s="1"/>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:16">
       <c r="B24" s="1"/>
       <c r="C24" s="2" t="e">
         <f t="shared" si="0"/>
@@ -2331,7 +5512,7 @@
       <c r="O24" s="1"/>
       <c r="P24" s="1"/>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:16">
       <c r="B25" s="1"/>
       <c r="C25" s="2" t="e">
         <f t="shared" si="0"/>
@@ -2360,7 +5541,7 @@
       <c r="O25" s="1"/>
       <c r="P25" s="1"/>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:16">
       <c r="B26" s="1"/>
       <c r="C26" s="2" t="e">
         <f t="shared" si="0"/>
@@ -2389,7 +5570,7 @@
       <c r="O26" s="1"/>
       <c r="P26" s="1"/>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:16">
       <c r="B27" s="1"/>
       <c r="C27" s="2" t="e">
         <f t="shared" si="0"/>
@@ -2418,7 +5599,7 @@
       <c r="O27" s="1"/>
       <c r="P27" s="1"/>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:16">
       <c r="B28" s="1"/>
       <c r="C28" s="2" t="e">
         <f t="shared" si="0"/>
@@ -2447,7 +5628,7 @@
       <c r="O28" s="1"/>
       <c r="P28" s="1"/>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:16">
       <c r="C29" s="2" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -2459,19 +5640,19 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:16">
       <c r="C30" s="2"/>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:16">
       <c r="C31" s="2"/>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:16">
       <c r="C32" s="2"/>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:14">
       <c r="C33" s="2"/>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:14">
       <c r="A34" t="s">
         <v>10</v>
       </c>
@@ -2506,7 +5687,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:14">
       <c r="A35">
         <v>2018</v>
       </c>
@@ -2549,7 +5730,7 @@
         <v>0.2237952540728636</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:14">
       <c r="A36">
         <v>2017</v>
       </c>
@@ -2592,7 +5773,7 @@
         <v>0.19560853164378683</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:14">
       <c r="B37" s="1"/>
       <c r="C37" s="2" t="e">
         <f t="shared" si="4"/>
@@ -2619,7 +5800,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:14">
       <c r="B38" s="1"/>
       <c r="C38" s="2" t="e">
         <f t="shared" si="4"/>
@@ -2646,7 +5827,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:14">
       <c r="B39" s="1"/>
       <c r="C39" s="2" t="e">
         <f t="shared" si="4"/>
@@ -2673,7 +5854,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:14">
       <c r="B40" s="1"/>
       <c r="C40" s="2" t="e">
         <f t="shared" si="4"/>
@@ -2700,7 +5881,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:14">
       <c r="B41" s="1"/>
       <c r="C41" s="2" t="e">
         <f t="shared" si="4"/>
@@ -2727,7 +5908,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:14">
       <c r="B42" s="1"/>
       <c r="C42" s="2" t="e">
         <f t="shared" si="4"/>
@@ -2754,7 +5935,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:14">
       <c r="B43" s="1"/>
       <c r="C43" s="2" t="e">
         <f t="shared" si="4"/>
@@ -2781,7 +5962,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:14">
       <c r="B44" s="1"/>
       <c r="C44" s="2" t="e">
         <f t="shared" si="4"/>
@@ -2808,7 +5989,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:14">
       <c r="B45" s="1"/>
       <c r="C45" s="2" t="e">
         <f t="shared" si="4"/>
@@ -2835,7 +6016,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:14">
       <c r="C46" s="2" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
@@ -2847,13 +6028,13 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:14">
       <c r="C47" s="2"/>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:14">
       <c r="C48" s="2"/>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:14">
       <c r="A49" t="s">
         <v>10</v>
       </c>
@@ -2882,7 +6063,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:14">
       <c r="A50">
         <v>2018</v>
       </c>
@@ -2920,7 +6101,7 @@
       <c r="M50" s="1"/>
       <c r="N50" s="2"/>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:14">
       <c r="A51">
         <v>2017</v>
       </c>
@@ -2958,7 +6139,7 @@
       <c r="M51" s="1"/>
       <c r="N51" s="2"/>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:14">
       <c r="B52" s="1"/>
       <c r="C52" s="2" t="e">
         <f t="shared" si="8"/>
@@ -2982,7 +6163,7 @@
       <c r="M52" s="1"/>
       <c r="N52" s="2"/>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:14">
       <c r="B53" s="1"/>
       <c r="C53" s="2" t="e">
         <f t="shared" si="8"/>
@@ -3006,7 +6187,7 @@
       <c r="M53" s="1"/>
       <c r="N53" s="2"/>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:14">
       <c r="B54" s="1"/>
       <c r="C54" s="2" t="e">
         <f t="shared" si="8"/>
@@ -3030,7 +6211,7 @@
       <c r="M54" s="1"/>
       <c r="N54" s="2"/>
     </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:14">
       <c r="B55" s="1"/>
       <c r="C55" s="2" t="e">
         <f t="shared" si="8"/>
@@ -3054,7 +6235,7 @@
       <c r="M55" s="1"/>
       <c r="N55" s="2"/>
     </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:14">
       <c r="B56" s="1"/>
       <c r="C56" s="2" t="e">
         <f t="shared" si="8"/>
@@ -3078,7 +6259,7 @@
       <c r="M56" s="1"/>
       <c r="N56" s="2"/>
     </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:14">
       <c r="B57" s="1"/>
       <c r="C57" s="2" t="e">
         <f t="shared" si="8"/>
@@ -3102,7 +6283,7 @@
       <c r="M57" s="1"/>
       <c r="N57" s="2"/>
     </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:14">
       <c r="B58" s="1"/>
       <c r="C58" s="2" t="e">
         <f t="shared" si="8"/>
@@ -3126,7 +6307,7 @@
       <c r="M58" s="1"/>
       <c r="N58" s="2"/>
     </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:14">
       <c r="B59" s="1"/>
       <c r="C59" s="2" t="e">
         <f t="shared" si="8"/>
@@ -3150,7 +6331,7 @@
       <c r="M59" s="1"/>
       <c r="N59" s="2"/>
     </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:14">
       <c r="B60" s="1"/>
       <c r="C60" s="2" t="e">
         <f t="shared" si="8"/>
@@ -3174,7 +6355,7 @@
       <c r="M60" s="1"/>
       <c r="N60" s="2"/>
     </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:14">
       <c r="C61" s="2">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -3183,7 +6364,7 @@
       <c r="G61" s="2"/>
       <c r="N61" s="2"/>
     </row>
-    <row r="65" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:16">
       <c r="A65" t="s">
         <v>10</v>
       </c>
@@ -3221,7 +6402,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:16">
       <c r="A66">
         <v>2018</v>
       </c>
@@ -3267,7 +6448,7 @@
         <v>0.31730634399459795</v>
       </c>
     </row>
-    <row r="67" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:16" ht="15" customHeight="1">
       <c r="A67">
         <v>2017</v>
       </c>
@@ -3313,7 +6494,7 @@
         <v>0.40808155288517173</v>
       </c>
     </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:16">
       <c r="B68" s="1"/>
       <c r="C68" s="1" t="e">
         <f t="shared" ref="C68:C77" ca="1" si="14">F68+I68+L68+N68</f>
@@ -3344,7 +6525,7 @@
         <v>0.31730634399459795</v>
       </c>
     </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:16">
       <c r="B69" s="1"/>
       <c r="C69" s="1" t="e">
         <f t="shared" ca="1" si="14"/>
@@ -3375,7 +6556,7 @@
         <v>0.31730634399459795</v>
       </c>
     </row>
-    <row r="70" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:16">
       <c r="B70" s="1"/>
       <c r="C70" s="1" t="e">
         <f t="shared" ca="1" si="14"/>
@@ -3406,7 +6587,7 @@
         <v>0.31730634399459795</v>
       </c>
     </row>
-    <row r="71" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:16">
       <c r="B71" s="1"/>
       <c r="C71" s="1" t="e">
         <f t="shared" ca="1" si="14"/>
@@ -3437,7 +6618,7 @@
         <v>0.31730634399459795</v>
       </c>
     </row>
-    <row r="72" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:16">
       <c r="B72" s="1"/>
       <c r="C72" s="1" t="e">
         <f t="shared" ca="1" si="14"/>
@@ -3468,7 +6649,7 @@
         <v>0.31730634399459795</v>
       </c>
     </row>
-    <row r="73" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:16">
       <c r="B73" s="1"/>
       <c r="C73" s="1" t="e">
         <f t="shared" ca="1" si="14"/>
@@ -3499,7 +6680,7 @@
         <v>0.31730634399459795</v>
       </c>
     </row>
-    <row r="74" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:16">
       <c r="B74" s="1"/>
       <c r="C74" s="1" t="e">
         <f t="shared" ca="1" si="14"/>
@@ -3530,7 +6711,7 @@
         <v>0.31730634399459795</v>
       </c>
     </row>
-    <row r="75" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:16">
       <c r="B75" s="1"/>
       <c r="C75" s="1" t="e">
         <f t="shared" ca="1" si="14"/>
@@ -3561,7 +6742,7 @@
         <v>0.31730634399459795</v>
       </c>
     </row>
-    <row r="76" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:16">
       <c r="B76" s="1"/>
       <c r="C76" s="1" t="e">
         <f t="shared" ca="1" si="14"/>
@@ -3592,7 +6773,7 @@
         <v>0.31730634399459795</v>
       </c>
     </row>
-    <row r="77" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:16">
       <c r="C77" s="1">
         <f t="shared" si="14"/>
         <v>0</v>
@@ -3602,12 +6783,12 @@
       <c r="M77" s="1"/>
       <c r="P77" s="2"/>
     </row>
-    <row r="80" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:16">
       <c r="A80" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="81" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:16">
       <c r="A81" t="s">
         <v>10</v>
       </c>
@@ -3642,7 +6823,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="82" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:16">
       <c r="A82">
         <v>2018</v>
       </c>
@@ -3685,7 +6866,7 @@
       <c r="O82" s="4"/>
       <c r="P82" s="2"/>
     </row>
-    <row r="83" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:16">
       <c r="A83">
         <f>A82-1</f>
         <v>2017</v>
@@ -3729,7 +6910,7 @@
       <c r="O83" s="4"/>
       <c r="P83" s="2"/>
     </row>
-    <row r="84" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:16">
       <c r="A84">
         <f t="shared" ref="A84:A90" si="19">A83-1</f>
         <v>2016</v>
@@ -3772,7 +6953,7 @@
       <c r="N84" s="2"/>
       <c r="P84" s="2"/>
     </row>
-    <row r="85" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:16">
       <c r="A85">
         <f t="shared" si="19"/>
         <v>2015</v>
@@ -3815,7 +6996,7 @@
       <c r="N85" s="2"/>
       <c r="P85" s="2"/>
     </row>
-    <row r="86" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:16">
       <c r="A86">
         <f t="shared" si="19"/>
         <v>2014</v>
@@ -3858,7 +7039,7 @@
       <c r="N86" s="2"/>
       <c r="P86" s="2"/>
     </row>
-    <row r="87" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:16">
       <c r="A87">
         <f t="shared" si="19"/>
         <v>2013</v>
@@ -3901,7 +7082,7 @@
       <c r="N87" s="2"/>
       <c r="P87" s="2"/>
     </row>
-    <row r="88" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:16">
       <c r="A88">
         <f t="shared" si="19"/>
         <v>2012</v>
@@ -3944,7 +7125,7 @@
       <c r="N88" s="2"/>
       <c r="P88" s="2"/>
     </row>
-    <row r="89" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:16">
       <c r="A89">
         <f t="shared" si="19"/>
         <v>2011</v>
@@ -3987,7 +7168,7 @@
       <c r="N89" s="2"/>
       <c r="P89" s="2"/>
     </row>
-    <row r="90" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:16">
       <c r="A90">
         <f t="shared" si="19"/>
         <v>2010</v>
@@ -4030,7 +7211,7 @@
       <c r="N90" s="2"/>
       <c r="P90" s="2"/>
     </row>
-    <row r="91" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:16">
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
       <c r="D91" s="1"/>
@@ -4046,7 +7227,7 @@
       <c r="N91" s="2"/>
       <c r="P91" s="2"/>
     </row>
-    <row r="92" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:16">
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
       <c r="D92" s="1"/>
@@ -4062,22 +7243,22 @@
       <c r="N92" s="2"/>
       <c r="P92" s="2"/>
     </row>
-    <row r="93" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:16">
       <c r="F93" s="5"/>
       <c r="G93" s="1"/>
       <c r="I93" s="5"/>
       <c r="J93" s="5"/>
     </row>
-    <row r="94" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:16">
       <c r="I94" s="5"/>
       <c r="J94" s="5"/>
     </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:13">
       <c r="A97" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:13">
       <c r="A98" t="s">
         <v>10</v>
       </c>
@@ -4109,7 +7290,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:13">
       <c r="A99">
         <v>2018</v>
       </c>
@@ -4147,7 +7328,7 @@
         <v>-169370763.40999997</v>
       </c>
     </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:13">
       <c r="A100">
         <v>2017</v>
       </c>
@@ -4185,7 +7366,7 @@
         <v>233455309.41999996</v>
       </c>
     </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:13">
       <c r="B101" s="1"/>
       <c r="C101" s="1">
         <f t="shared" ref="C101:C109" si="23">F101+I101+L101+N101</f>
@@ -4211,7 +7392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:13">
       <c r="B102" s="1"/>
       <c r="C102" s="1">
         <f t="shared" si="23"/>
@@ -4237,7 +7418,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:13">
       <c r="B103" s="1"/>
       <c r="C103" s="1">
         <f t="shared" si="23"/>
@@ -4263,7 +7444,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:13">
       <c r="B104" s="1"/>
       <c r="C104" s="1">
         <f t="shared" si="23"/>
@@ -4289,7 +7470,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:13">
       <c r="B105" s="1"/>
       <c r="C105" s="1">
         <f t="shared" si="23"/>
@@ -4315,7 +7496,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:13">
       <c r="B106" s="1"/>
       <c r="C106" s="1">
         <f t="shared" si="23"/>
@@ -4341,7 +7522,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:13">
       <c r="B107" s="1"/>
       <c r="C107" s="1">
         <f t="shared" si="23"/>
@@ -4367,7 +7548,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:13">
       <c r="B108" s="1"/>
       <c r="C108" s="1">
         <f t="shared" si="23"/>
@@ -4393,7 +7574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:13">
       <c r="B109" s="1"/>
       <c r="C109" s="1" t="e">
         <f t="shared" si="23"/>
@@ -4413,13 +7594,13 @@
       <c r="L109" s="1"/>
       <c r="M109" s="1"/>
     </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:13">
       <c r="F110" s="5"/>
       <c r="G110" s="5"/>
       <c r="I110" s="5"/>
       <c r="J110" s="5"/>
     </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:13">
       <c r="I111" s="5"/>
       <c r="J111" s="5"/>
     </row>
@@ -4438,12 +7619,12 @@
       <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
   <cols>
-    <col min="3" max="3" width="18.83203125" customWidth="1"/>
+    <col min="3" max="3" width="18.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14">
       <c r="A3" t="s">
         <v>66</v>
       </c>
@@ -4454,7 +7635,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14">
       <c r="A4">
         <v>2018</v>
       </c>
@@ -4474,7 +7655,7 @@
       <c r="M4" s="9"/>
       <c r="N4" s="9"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14">
       <c r="A5">
         <v>2017</v>
       </c>
@@ -4494,7 +7675,7 @@
       <c r="M5" s="9"/>
       <c r="N5" s="9"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14">
       <c r="A6">
         <v>2016</v>
       </c>
@@ -4514,7 +7695,7 @@
       <c r="M6" s="9"/>
       <c r="N6" s="9"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14">
       <c r="A7">
         <v>2015</v>
       </c>
@@ -4534,7 +7715,7 @@
       <c r="M7" s="9"/>
       <c r="N7" s="9"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14">
       <c r="A8">
         <v>2014</v>
       </c>
@@ -4554,7 +7735,7 @@
       <c r="M8" s="9"/>
       <c r="N8" s="9"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14">
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
       <c r="D9" s="9"/>
@@ -4569,7 +7750,7 @@
       <c r="M9" s="9"/>
       <c r="N9" s="9"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14">
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
@@ -4584,7 +7765,7 @@
       <c r="M10" s="9"/>
       <c r="N10" s="9"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14">
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
       <c r="D11" s="9"/>
@@ -4599,7 +7780,7 @@
       <c r="M11" s="9"/>
       <c r="N11" s="9"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:14">
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
@@ -4614,7 +7795,7 @@
       <c r="M12" s="9"/>
       <c r="N12" s="9"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14">
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
       <c r="D13" s="9"/>
@@ -4629,7 +7810,7 @@
       <c r="M13" s="9"/>
       <c r="N13" s="9"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:14">
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
       <c r="D14" s="9"/>
@@ -4644,7 +7825,7 @@
       <c r="M14" s="9"/>
       <c r="N14" s="9"/>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:14">
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
       <c r="D15" s="9"/>
@@ -4659,7 +7840,7 @@
       <c r="M15" s="9"/>
       <c r="N15" s="9"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:14">
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
       <c r="D16" s="9"/>
@@ -4674,7 +7855,7 @@
       <c r="M16" s="9"/>
       <c r="N16" s="9"/>
     </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:14">
       <c r="B17" s="9"/>
       <c r="C17" s="9"/>
       <c r="D17" s="9"/>
@@ -4689,7 +7870,7 @@
       <c r="M17" s="9"/>
       <c r="N17" s="9"/>
     </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:14">
       <c r="B18" s="9"/>
       <c r="C18" s="9"/>
       <c r="D18" s="9"/>
@@ -4704,7 +7885,7 @@
       <c r="M18" s="9"/>
       <c r="N18" s="9"/>
     </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:14">
       <c r="B19" s="9"/>
       <c r="C19" s="9"/>
       <c r="D19" s="9"/>
@@ -4719,7 +7900,7 @@
       <c r="M19" s="9"/>
       <c r="N19" s="9"/>
     </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:14">
       <c r="B20" s="9"/>
       <c r="C20" s="9"/>
       <c r="D20" s="9"/>
@@ -4734,7 +7915,7 @@
       <c r="M20" s="9"/>
       <c r="N20" s="9"/>
     </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:14">
       <c r="B21" s="9"/>
       <c r="C21" s="9"/>
       <c r="D21" s="9"/>
@@ -4749,7 +7930,7 @@
       <c r="M21" s="9"/>
       <c r="N21" s="9"/>
     </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:14">
       <c r="B22" s="9"/>
       <c r="C22" s="9"/>
       <c r="D22" s="9"/>
@@ -4764,7 +7945,7 @@
       <c r="M22" s="9"/>
       <c r="N22" s="9"/>
     </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:14">
       <c r="B23" s="9"/>
       <c r="C23" s="9"/>
       <c r="D23" s="9"/>
@@ -4779,7 +7960,7 @@
       <c r="M23" s="9"/>
       <c r="N23" s="9"/>
     </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:14">
       <c r="B24" s="9"/>
       <c r="C24" s="9"/>
       <c r="D24" s="9"/>
@@ -4794,7 +7975,7 @@
       <c r="M24" s="9"/>
       <c r="N24" s="9"/>
     </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:14">
       <c r="B25" s="9"/>
       <c r="C25" s="9"/>
       <c r="D25" s="9"/>
@@ -4809,7 +7990,7 @@
       <c r="M25" s="9"/>
       <c r="N25" s="9"/>
     </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:14">
       <c r="B26" s="9"/>
       <c r="C26" s="9"/>
       <c r="D26" s="9"/>
@@ -4824,7 +8005,7 @@
       <c r="M26" s="9"/>
       <c r="N26" s="9"/>
     </row>
-    <row r="27" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:14">
       <c r="B27" s="9"/>
       <c r="C27" s="9"/>
       <c r="D27" s="9"/>
@@ -4839,7 +8020,7 @@
       <c r="M27" s="9"/>
       <c r="N27" s="9"/>
     </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:14">
       <c r="B28" s="9"/>
       <c r="C28" s="9"/>
       <c r="D28" s="9"/>
@@ -4854,7 +8035,7 @@
       <c r="M28" s="9"/>
       <c r="N28" s="9"/>
     </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:14">
       <c r="B29" s="9"/>
       <c r="C29" s="9"/>
       <c r="D29" s="9"/>
@@ -4869,7 +8050,7 @@
       <c r="M29" s="9"/>
       <c r="N29" s="9"/>
     </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:14">
       <c r="B30" s="9"/>
       <c r="C30" s="9"/>
       <c r="D30" s="9"/>
@@ -4894,26 +8075,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="17.83203125" customWidth="1"/>
-    <col min="2" max="2" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.875" customWidth="1"/>
+    <col min="2" max="2" width="15.125" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="14.5" customWidth="1"/>
-    <col min="5" max="5" width="15.83203125" customWidth="1"/>
+    <col min="5" max="5" width="15.875" customWidth="1"/>
     <col min="6" max="6" width="15" customWidth="1"/>
     <col min="7" max="7" width="17.5" customWidth="1"/>
-    <col min="8" max="8" width="15.83203125" customWidth="1"/>
-    <col min="9" max="9" width="16.1640625" customWidth="1"/>
-    <col min="10" max="10" width="16.83203125" customWidth="1"/>
-    <col min="11" max="11" width="16.33203125" customWidth="1"/>
+    <col min="8" max="8" width="15.875" customWidth="1"/>
+    <col min="9" max="9" width="16.125" customWidth="1"/>
+    <col min="10" max="10" width="16.875" customWidth="1"/>
+    <col min="11" max="11" width="16.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2" spans="1:12" ht="21" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="15" customHeight="1"/>
+    <row r="2" spans="1:12" ht="20.25">
       <c r="A2" t="s">
         <v>66</v>
       </c>
@@ -4948,7 +8129,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="21" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" ht="20.25">
       <c r="A3" s="10" t="s">
         <v>110</v>
       </c>
@@ -4983,7 +8164,7 @@
         <v>1277557771.6300001</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12">
       <c r="A4" t="s">
         <v>69</v>
       </c>
@@ -5024,7 +8205,7 @@
         <v>0.19478969394729037</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12">
       <c r="A5" t="s">
         <v>120</v>
       </c>
@@ -5033,7 +8214,7 @@
         <v>0.36557856718728066</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12">
       <c r="A6" t="s">
         <v>121</v>
       </c>
@@ -5042,7 +8223,7 @@
         <v>0.34647063490820784</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12">
       <c r="A8" s="16" t="s">
         <v>111</v>
       </c>
@@ -5059,7 +8240,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12">
       <c r="A9" s="17">
         <v>1277557771.6300001</v>
       </c>
@@ -5076,10 +8257,10 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12">
       <c r="A10" s="1"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12">
       <c r="A11" s="16"/>
       <c r="B11" s="18">
         <v>0.18</v>
@@ -5099,7 +8280,7 @@
       <c r="G11" s="16"/>
       <c r="H11" s="16"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12">
       <c r="A12" s="16" t="s">
         <v>66</v>
       </c>
@@ -5135,7 +8316,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12">
       <c r="A13" s="16" t="s">
         <v>112</v>
       </c>
@@ -5165,7 +8346,7 @@
       </c>
       <c r="H13" s="16"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12">
       <c r="A14" s="16" t="s">
         <v>113</v>
       </c>
@@ -5212,7 +8393,7 @@
         <v>1.1985372475818712</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12">
       <c r="A15" s="16"/>
       <c r="B15" s="17"/>
       <c r="C15" s="17"/>
@@ -5236,34 +8417,33 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:AB18"/>
+  <dimension ref="A2:AB19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="A3" sqref="A3:B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
   <cols>
-    <col min="2" max="2" width="16.83203125" customWidth="1"/>
-    <col min="3" max="3" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.83203125" customWidth="1"/>
+    <col min="2" max="2" width="16.875" customWidth="1"/>
+    <col min="3" max="4" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.875" customWidth="1"/>
     <col min="8" max="8" width="15.5" customWidth="1"/>
-    <col min="9" max="9" width="16.1640625" customWidth="1"/>
-    <col min="10" max="10" width="14.1640625" customWidth="1"/>
-    <col min="11" max="11" width="16.6640625" customWidth="1"/>
+    <col min="9" max="9" width="16.125" customWidth="1"/>
+    <col min="10" max="10" width="14.125" customWidth="1"/>
+    <col min="11" max="11" width="16.625" customWidth="1"/>
     <col min="12" max="12" width="15" customWidth="1"/>
     <col min="13" max="13" width="14.5" customWidth="1"/>
-    <col min="14" max="20" width="17.83203125" customWidth="1"/>
-    <col min="21" max="21" width="15.6640625" customWidth="1"/>
-    <col min="22" max="22" width="16.1640625" customWidth="1"/>
-    <col min="23" max="25" width="15.1640625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.6640625" customWidth="1"/>
-    <col min="28" max="28" width="18.1640625" customWidth="1"/>
+    <col min="14" max="20" width="17.875" customWidth="1"/>
+    <col min="21" max="21" width="15.625" customWidth="1"/>
+    <col min="22" max="22" width="16.125" customWidth="1"/>
+    <col min="23" max="25" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="13.625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.625" customWidth="1"/>
+    <col min="28" max="28" width="18.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:28">
       <c r="J2" t="s">
         <v>82</v>
       </c>
@@ -5277,7 +8457,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:28">
       <c r="A3" t="s">
         <v>73</v>
       </c>
@@ -5348,162 +8528,105 @@
         <v>93</v>
       </c>
     </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:28">
       <c r="A4">
+        <v>2019</v>
+      </c>
+      <c r="B4" s="4">
+        <v>1339790994.9400001</v>
+      </c>
+      <c r="C4" s="4">
+        <v>1222100617.3099999</v>
+      </c>
+      <c r="D4" s="4">
+        <v>1364903511.2</v>
+      </c>
+      <c r="E4" s="4">
+        <v>1571451499.51</v>
+      </c>
+      <c r="F4" s="2">
+        <f t="shared" ref="F4:F14" si="0">C4/D4</f>
+        <v>0.89537509961825046</v>
+      </c>
+      <c r="G4" s="2">
+        <f t="shared" ref="G4:G14" si="1">E4/D4</f>
+        <v>1.1513279045845566</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28">
+      <c r="A5">
         <v>2018</v>
       </c>
-      <c r="B4" s="9">
-        <v>232366860.28</v>
-      </c>
-      <c r="C4" s="9">
-        <v>216834636.72999999</v>
-      </c>
-      <c r="D4" s="9">
+      <c r="B5" s="9">
+        <v>1287186547.4100001</v>
+      </c>
+      <c r="C5" s="9">
+        <v>1279733108.3099999</v>
+      </c>
+      <c r="D5" s="9">
         <v>1277557771.6300001</v>
       </c>
-      <c r="E4" s="9">
+      <c r="E5" s="9">
         <v>1647243748.01</v>
-      </c>
-      <c r="F4" s="2">
-        <f t="shared" ref="F4:F13" si="0">C4/D4</f>
-        <v>0.16972589541163902</v>
-      </c>
-      <c r="G4" s="2">
-        <f t="shared" ref="G4:G13" si="1">E4/D4</f>
-        <v>1.2893692830096661</v>
-      </c>
-      <c r="H4" s="9">
-        <f>D4+J4+L4+M4+N4+O4+R4+S4+T4+U4+V4+W4+P4+Q4</f>
-        <v>1647243748.0100002</v>
-      </c>
-      <c r="I4" s="9">
-        <f>H4-E4</f>
-        <v>0</v>
-      </c>
-      <c r="J4" s="9">
-        <v>31899429.829999998</v>
-      </c>
-      <c r="K4" s="2">
-        <f>J4/D4</f>
-        <v>2.4969070313979155E-2</v>
-      </c>
-      <c r="L4" s="9">
-        <v>171784373.06</v>
-      </c>
-      <c r="M4" s="9">
-        <v>42672958.899999999</v>
-      </c>
-      <c r="N4" s="9">
-        <v>41836675.880000003</v>
-      </c>
-      <c r="O4" s="9">
-        <v>-19135248.57</v>
-      </c>
-      <c r="P4" s="9">
-        <v>49567561.090000004</v>
-      </c>
-      <c r="Q4" s="9">
-        <v>-9660319.4000000004</v>
-      </c>
-      <c r="R4" s="9">
-        <v>2303517.56</v>
-      </c>
-      <c r="S4" s="11">
-        <v>-63280814.82</v>
-      </c>
-      <c r="T4" s="11">
-        <v>-6016880.2000000002</v>
-      </c>
-      <c r="U4" s="9">
-        <v>901140.65</v>
-      </c>
-      <c r="V4" s="9">
-        <v>-175371877.58000001</v>
-      </c>
-      <c r="W4" s="9">
-        <v>302185459.98000002</v>
-      </c>
-      <c r="X4" s="9"/>
-      <c r="Y4" s="9"/>
-      <c r="Z4" s="9"/>
-      <c r="AA4" s="9"/>
-      <c r="AB4" s="9"/>
-    </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <f>A4-1</f>
-        <v>2017</v>
-      </c>
-      <c r="B5" s="9">
-        <v>138703129.69</v>
-      </c>
-      <c r="C5" s="9">
-        <v>145936922.75</v>
-      </c>
-      <c r="D5" s="9">
-        <v>1069274181.14</v>
-      </c>
-      <c r="E5" s="9">
-        <v>1764016869.3800001</v>
       </c>
       <c r="F5" s="2">
         <f t="shared" si="0"/>
-        <v>0.13648222815443861</v>
+        <v>1.0017027305757173</v>
       </c>
       <c r="G5" s="2">
         <f t="shared" si="1"/>
-        <v>1.6497329688623965</v>
+        <v>1.2893692830096661</v>
       </c>
       <c r="H5" s="9">
-        <f t="shared" ref="H5:H13" si="2">D5+J5+L5+M5+N5+O5+R5+S5+T5+U5+V5+W5+P5+Q5</f>
-        <v>1764016869.3800001</v>
+        <f>D5+J5+L5+M5+N5+O5+R5+S5+T5+U5+V5+W5+P5+Q5</f>
+        <v>1647243748.0100002</v>
       </c>
       <c r="I5" s="9">
-        <f t="shared" ref="I5:I13" si="3">H5-E5</f>
+        <f>H5-E5</f>
         <v>0</v>
       </c>
       <c r="J5" s="9">
-        <v>8958754.7699999996</v>
+        <v>31899429.829999998</v>
       </c>
       <c r="K5" s="2">
-        <f t="shared" ref="K5:K13" si="4">J5/D5</f>
-        <v>8.3783513415134365E-3</v>
+        <f>J5/D5</f>
+        <v>2.4969070313979155E-2</v>
       </c>
       <c r="L5" s="9">
-        <v>159756982.52000001</v>
+        <v>171784373.06</v>
       </c>
       <c r="M5" s="9">
-        <v>34207691.100000001</v>
+        <v>42672958.899999999</v>
       </c>
       <c r="N5" s="9">
-        <v>27397333.73</v>
+        <v>41836675.880000003</v>
       </c>
       <c r="O5" s="9">
-        <v>-54373.41</v>
+        <v>-19135248.57</v>
       </c>
       <c r="P5" s="9">
-        <v>37008189.719999999</v>
+        <v>49567561.090000004</v>
       </c>
       <c r="Q5" s="9">
-        <v>-1110054.4099999999</v>
+        <v>-9660319.4000000004</v>
       </c>
       <c r="R5" s="9">
-        <v>16605129.130000001</v>
-      </c>
-      <c r="S5" s="9">
-        <v>-17702729.920000002</v>
-      </c>
-      <c r="T5" s="9">
-        <v>-1416356.61</v>
+        <v>2303517.56</v>
+      </c>
+      <c r="S5" s="11">
+        <v>-63280814.82</v>
+      </c>
+      <c r="T5" s="11">
+        <v>-6016880.2000000002</v>
       </c>
       <c r="U5" s="9">
-        <v>169043.79</v>
+        <v>901140.65</v>
       </c>
       <c r="V5" s="9">
-        <v>-42541297.299999997</v>
+        <v>-175371877.58000001</v>
       </c>
       <c r="W5" s="9">
-        <v>473464375.13</v>
+        <v>302185459.98000002</v>
       </c>
       <c r="X5" s="9"/>
       <c r="Y5" s="9"/>
@@ -5511,79 +8634,81 @@
       <c r="AA5" s="9"/>
       <c r="AB5" s="9"/>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28">
       <c r="A6">
-        <f t="shared" ref="A6:A12" si="5">A5-1</f>
-        <v>2016</v>
+        <f>A5-1</f>
+        <v>2017</v>
       </c>
       <c r="B6" s="9">
-        <v>92753424.450000003</v>
+        <v>1067612066.9299999</v>
       </c>
       <c r="C6" s="9">
-        <v>88628567.230000004</v>
+        <v>1106871681.74</v>
       </c>
       <c r="D6" s="9">
-        <v>916466911.99000001</v>
+        <v>1069274181.14</v>
       </c>
       <c r="E6" s="9">
-        <v>1030251692.17</v>
+        <v>1764016869.3800001</v>
       </c>
       <c r="F6" s="2">
         <f t="shared" si="0"/>
-        <v>9.6706783486109171E-2</v>
+        <v>1.0351617024549453</v>
       </c>
       <c r="G6" s="2">
         <f t="shared" si="1"/>
-        <v>1.1241559064395785</v>
+        <v>1.6497329688623965</v>
       </c>
       <c r="H6" s="9">
-        <f t="shared" si="2"/>
-        <v>1030251692.1700002</v>
+        <f t="shared" ref="H6:H14" si="2">D6+J6+L6+M6+N6+O6+R6+S6+T6+U6+V6+W6+P6+Q6</f>
+        <v>1764016869.3800001</v>
       </c>
       <c r="I6" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="I6:I14" si="3">H6-E6</f>
         <v>0</v>
       </c>
       <c r="J6" s="9">
-        <v>3011927.49</v>
+        <v>8958754.7699999996</v>
       </c>
       <c r="K6" s="2">
-        <f t="shared" si="4"/>
-        <v>3.2864552452417013E-3</v>
+        <f t="shared" ref="K6:K14" si="4">J6/D6</f>
+        <v>8.3783513415134365E-3</v>
       </c>
       <c r="L6" s="9">
-        <v>152916611.09999999</v>
+        <v>159756982.52000001</v>
       </c>
       <c r="M6" s="9">
-        <v>27503713.09</v>
+        <v>34207691.100000001</v>
       </c>
       <c r="N6" s="9">
-        <v>22930199.760000002</v>
+        <v>27397333.73</v>
       </c>
       <c r="O6" s="9">
-        <v>2121727.0699999998</v>
-      </c>
-      <c r="P6" s="9"/>
+        <v>-54373.41</v>
+      </c>
+      <c r="P6" s="9">
+        <v>37008189.719999999</v>
+      </c>
       <c r="Q6" s="9">
-        <v>-113847.21</v>
+        <v>-1110054.4099999999</v>
       </c>
       <c r="R6" s="9">
-        <v>23423247.09</v>
+        <v>16605129.130000001</v>
       </c>
       <c r="S6" s="9">
-        <v>-14451892.1</v>
+        <v>-17702729.920000002</v>
       </c>
       <c r="T6" s="9">
-        <v>72707.149999999994</v>
+        <v>-1416356.61</v>
       </c>
       <c r="U6" s="9">
-        <v>-1695298.59</v>
+        <v>169043.79</v>
       </c>
       <c r="V6" s="9">
-        <v>103397076.67</v>
+        <v>-42541297.299999997</v>
       </c>
       <c r="W6" s="9">
-        <v>-205331391.34</v>
+        <v>473464375.13</v>
       </c>
       <c r="X6" s="9"/>
       <c r="Y6" s="9"/>
@@ -5591,77 +8716,79 @@
       <c r="AA6" s="9"/>
       <c r="AB6" s="9"/>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28">
       <c r="A7">
-        <f t="shared" si="5"/>
-        <v>2015</v>
+        <f t="shared" ref="A7:A13" si="5">A6-1</f>
+        <v>2016</v>
       </c>
       <c r="B7" s="9">
-        <v>120559675.81</v>
+        <v>902305171.90999997</v>
       </c>
       <c r="C7" s="9">
-        <v>115296313.16</v>
+        <v>887139909.34000003</v>
       </c>
       <c r="D7" s="9">
-        <v>645445084.58000004</v>
+        <v>916466911.99000001</v>
       </c>
       <c r="E7" s="9">
-        <v>915321127.36000001</v>
+        <v>1030251692.17</v>
       </c>
       <c r="F7" s="2">
         <f t="shared" si="0"/>
-        <v>0.17863070912535478</v>
+        <v>0.96799993293121755</v>
       </c>
       <c r="G7" s="2">
         <f t="shared" si="1"/>
-        <v>1.418123941490099</v>
+        <v>1.1241559064395785</v>
       </c>
       <c r="H7" s="9">
         <f t="shared" si="2"/>
-        <v>915321127.3599999</v>
+        <v>1030251692.1700002</v>
       </c>
       <c r="I7" s="9">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J7" s="9">
-        <v>1004375.81</v>
+        <v>3011927.49</v>
       </c>
       <c r="K7" s="2">
         <f t="shared" si="4"/>
-        <v>1.556098007398354E-3</v>
+        <v>3.2864552452417013E-3</v>
       </c>
       <c r="L7" s="9">
-        <v>139861807.47</v>
+        <v>152916611.09999999</v>
       </c>
       <c r="M7" s="9">
-        <v>22840053.5</v>
+        <v>27503713.09</v>
       </c>
       <c r="N7" s="9">
-        <v>17563170.670000002</v>
+        <v>22930199.760000002</v>
       </c>
       <c r="O7" s="9">
-        <v>37619700.159999996</v>
+        <v>2121727.0699999998</v>
       </c>
       <c r="P7" s="9"/>
-      <c r="Q7" s="9"/>
+      <c r="Q7" s="9">
+        <v>-113847.21</v>
+      </c>
       <c r="R7" s="9">
-        <v>10867500</v>
+        <v>23423247.09</v>
       </c>
       <c r="S7" s="9">
-        <v>-4880868.04</v>
+        <v>-14451892.1</v>
       </c>
       <c r="T7" s="9">
-        <v>1585.71</v>
+        <v>72707.149999999994</v>
       </c>
       <c r="U7" s="9">
-        <v>-866769.23</v>
+        <v>-1695298.59</v>
       </c>
       <c r="V7" s="9">
-        <v>-76480851.560000002</v>
+        <v>103397076.67</v>
       </c>
       <c r="W7" s="9">
-        <v>122346338.29000001</v>
+        <v>-205331391.34</v>
       </c>
       <c r="X7" s="9"/>
       <c r="Y7" s="9"/>
@@ -5669,77 +8796,77 @@
       <c r="AA7" s="9"/>
       <c r="AB7" s="9"/>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:28">
       <c r="A8">
-        <f>A7-1</f>
-        <v>2014</v>
+        <f t="shared" si="5"/>
+        <v>2015</v>
       </c>
       <c r="B8" s="9">
-        <v>96069481.920000002</v>
+        <v>630560934.01999998</v>
       </c>
       <c r="C8" s="9">
-        <v>95314944.459999993</v>
+        <v>634352230.87</v>
       </c>
       <c r="D8" s="9">
-        <v>364722774.31999999</v>
+        <v>645445084.58000004</v>
       </c>
       <c r="E8" s="9">
-        <v>528002593.37</v>
+        <v>915321127.36000001</v>
       </c>
       <c r="F8" s="2">
         <f t="shared" si="0"/>
-        <v>0.26133532417247052</v>
+        <v>0.98281363670587363</v>
       </c>
       <c r="G8" s="2">
         <f t="shared" si="1"/>
-        <v>1.4476819945078114</v>
+        <v>1.418123941490099</v>
       </c>
       <c r="H8" s="9">
         <f t="shared" si="2"/>
-        <v>528002593.37000006</v>
+        <v>915321127.3599999</v>
       </c>
       <c r="I8" s="9">
-        <f>H8-E8</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J8" s="9">
-        <v>1323887.6599999999</v>
+        <v>1004375.81</v>
       </c>
       <c r="K8" s="2">
         <f t="shared" si="4"/>
-        <v>3.6298464291633433E-3</v>
+        <v>1.556098007398354E-3</v>
       </c>
       <c r="L8" s="9">
-        <v>128281530.09999999</v>
+        <v>139861807.47</v>
       </c>
       <c r="M8" s="9">
-        <v>20165943.030000001</v>
+        <v>22840053.5</v>
       </c>
       <c r="N8" s="9">
-        <v>12557288.060000001</v>
+        <v>17563170.670000002</v>
       </c>
       <c r="O8" s="9">
-        <v>1208206.93</v>
+        <v>37619700.159999996</v>
       </c>
       <c r="P8" s="9"/>
       <c r="Q8" s="9"/>
       <c r="R8" s="9">
-        <v>1036444.05</v>
+        <v>10867500</v>
       </c>
       <c r="S8" s="9">
-        <v>-6516609.4299999997</v>
+        <v>-4880868.04</v>
       </c>
       <c r="T8" s="9">
-        <v>1323027.2</v>
+        <v>1585.71</v>
       </c>
       <c r="U8" s="9">
-        <v>-615231.53</v>
+        <v>-866769.23</v>
       </c>
       <c r="V8" s="9">
-        <v>-1268124.45</v>
+        <v>-76480851.560000002</v>
       </c>
       <c r="W8" s="9">
-        <v>5783457.4299999997</v>
+        <v>122346338.29000001</v>
       </c>
       <c r="X8" s="9"/>
       <c r="Y8" s="9"/>
@@ -5747,77 +8874,77 @@
       <c r="AA8" s="9"/>
       <c r="AB8" s="9"/>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:28">
       <c r="A9">
-        <f t="shared" si="5"/>
-        <v>2013</v>
+        <f>A8-1</f>
+        <v>2014</v>
       </c>
       <c r="B9" s="9">
-        <v>28881580</v>
+        <v>361183249.79000002</v>
       </c>
       <c r="C9" s="9">
-        <v>20942216.949999999</v>
-      </c>
-      <c r="D9" s="7">
-        <v>308762015.88</v>
+        <v>345448557.30000001</v>
+      </c>
+      <c r="D9" s="9">
+        <v>364722774.31999999</v>
       </c>
       <c r="E9" s="9">
-        <v>429346660.82999998</v>
+        <v>528002593.37</v>
       </c>
       <c r="F9" s="2">
         <f t="shared" si="0"/>
-        <v>6.782640309661396E-2</v>
+        <v>0.94715378809032313</v>
       </c>
       <c r="G9" s="2">
         <f t="shared" si="1"/>
-        <v>1.3905423554329464</v>
+        <v>1.4476819945078114</v>
       </c>
       <c r="H9" s="9">
         <f t="shared" si="2"/>
-        <v>429346660.83000004</v>
+        <v>528002593.37000006</v>
       </c>
       <c r="I9" s="9">
-        <f t="shared" si="3"/>
+        <f>H9-E9</f>
         <v>0</v>
       </c>
       <c r="J9" s="9">
-        <v>784425.94</v>
+        <v>1323887.6599999999</v>
       </c>
       <c r="K9" s="2">
         <f t="shared" si="4"/>
-        <v>2.5405519450451644E-3</v>
+        <v>3.6298464291633433E-3</v>
       </c>
       <c r="L9" s="9">
-        <v>93858363.379999995</v>
+        <v>128281530.09999999</v>
       </c>
       <c r="M9" s="9">
-        <v>17922457.559999999</v>
+        <v>20165943.030000001</v>
       </c>
       <c r="N9" s="9">
-        <v>1794911.72</v>
+        <v>12557288.060000001</v>
       </c>
       <c r="O9" s="9">
-        <v>234623.61</v>
+        <v>1208206.93</v>
       </c>
       <c r="P9" s="9"/>
       <c r="Q9" s="9"/>
       <c r="R9" s="9">
-        <v>3895466.69</v>
+        <v>1036444.05</v>
       </c>
       <c r="S9" s="9">
-        <v>-10656664.34</v>
+        <v>-6516609.4299999997</v>
       </c>
       <c r="T9" s="9">
-        <v>-2410429.96</v>
+        <v>1323027.2</v>
       </c>
       <c r="U9" s="9">
-        <v>61041.08</v>
+        <v>-615231.53</v>
       </c>
       <c r="V9" s="9">
-        <v>-193656153.44</v>
+        <v>-1268124.45</v>
       </c>
       <c r="W9" s="9">
-        <v>208756602.71000001</v>
+        <v>5783457.4299999997</v>
       </c>
       <c r="X9" s="9"/>
       <c r="Y9" s="9"/>
@@ -5825,77 +8952,77 @@
       <c r="AA9" s="9"/>
       <c r="AB9" s="9"/>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:28">
       <c r="A10">
-        <f>A9-1</f>
-        <v>2012</v>
+        <f t="shared" si="5"/>
+        <v>2013</v>
       </c>
       <c r="B10" s="9">
-        <v>68000398.879999995</v>
+        <v>308423861.72000003</v>
       </c>
       <c r="C10" s="9">
-        <v>67245550.900000006</v>
-      </c>
-      <c r="D10" s="9">
-        <v>248553190.58000001</v>
+        <v>280175771.81</v>
+      </c>
+      <c r="D10" s="7">
+        <v>308762015.88</v>
       </c>
       <c r="E10" s="9">
-        <v>216412383.83000001</v>
+        <v>429346660.82999998</v>
       </c>
       <c r="F10" s="2">
         <f t="shared" si="0"/>
-        <v>0.27054792876760986</v>
+        <v>0.90741657781794638</v>
       </c>
       <c r="G10" s="2">
         <f t="shared" si="1"/>
-        <v>0.87068841612936343</v>
+        <v>1.3905423554329464</v>
       </c>
       <c r="H10" s="9">
         <f t="shared" si="2"/>
-        <v>216412383.82999998</v>
+        <v>429346660.83000004</v>
       </c>
       <c r="I10" s="9">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J10" s="9">
-        <v>-215819.68</v>
+        <v>784425.94</v>
       </c>
       <c r="K10" s="2">
         <f t="shared" si="4"/>
-        <v>-8.6830380047177736E-4</v>
+        <v>2.5405519450451644E-3</v>
       </c>
       <c r="L10" s="9">
-        <v>42148598.609999999</v>
+        <v>93858363.379999995</v>
       </c>
       <c r="M10" s="9">
-        <v>4711951.43</v>
+        <v>17922457.559999999</v>
       </c>
       <c r="N10" s="9">
-        <v>293333.34000000003</v>
+        <v>1794911.72</v>
       </c>
       <c r="O10" s="9">
-        <v>8938171.3699999992</v>
+        <v>234623.61</v>
       </c>
       <c r="P10" s="9"/>
       <c r="Q10" s="9"/>
       <c r="R10" s="9">
-        <v>10730819.359999999</v>
+        <v>3895466.69</v>
       </c>
       <c r="S10" s="9">
-        <v>-141100350.93000001</v>
+        <v>-10656664.34</v>
       </c>
       <c r="T10" s="9">
-        <v>53954.92</v>
+        <v>-2410429.96</v>
       </c>
       <c r="U10" s="9">
-        <v>-866599.42</v>
+        <v>61041.08</v>
       </c>
       <c r="V10" s="9">
-        <v>11147925.32</v>
+        <v>-193656153.44</v>
       </c>
       <c r="W10" s="9">
-        <v>32017208.93</v>
+        <v>208756602.71000001</v>
       </c>
       <c r="X10" s="9"/>
       <c r="Y10" s="9"/>
@@ -5903,75 +9030,77 @@
       <c r="AA10" s="9"/>
       <c r="AB10" s="9"/>
     </row>
-    <row r="11" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:28">
       <c r="A11">
-        <f t="shared" si="5"/>
-        <v>2011</v>
+        <f>A10-1</f>
+        <v>2012</v>
       </c>
       <c r="B11" s="9">
-        <v>47735376.670000002</v>
+        <v>256545865.97999999</v>
       </c>
       <c r="C11" s="9">
-        <v>45844510.909999996</v>
+        <v>224442499.06999999</v>
       </c>
       <c r="D11" s="9">
-        <v>183918298.69999999</v>
+        <v>248553190.58000001</v>
       </c>
       <c r="E11" s="9">
-        <v>81969268.069999993</v>
+        <v>395550930.70999998</v>
       </c>
       <c r="F11" s="2">
         <f t="shared" si="0"/>
-        <v>0.24926563171824295</v>
+        <v>0.90299584787570975</v>
       </c>
       <c r="G11" s="2">
         <f t="shared" si="1"/>
-        <v>0.44568304866556491</v>
+        <v>1.591413611657851</v>
       </c>
       <c r="H11" s="9">
         <f t="shared" si="2"/>
-        <v>81969268.069999993</v>
+        <v>216412383.82999998</v>
       </c>
       <c r="I11" s="9">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>-179138546.88</v>
       </c>
       <c r="J11" s="9">
-        <v>644099.18000000005</v>
+        <v>-215819.68</v>
       </c>
       <c r="K11" s="2">
         <f t="shared" si="4"/>
-        <v>3.5020940523739202E-3</v>
+        <v>-8.6830380047177736E-4</v>
       </c>
       <c r="L11" s="9">
-        <v>29621373.190000001</v>
+        <v>42148598.609999999</v>
       </c>
       <c r="M11" s="9">
-        <v>4604058.12</v>
-      </c>
-      <c r="N11" s="9"/>
+        <v>4711951.43</v>
+      </c>
+      <c r="N11" s="9">
+        <v>293333.34000000003</v>
+      </c>
       <c r="O11" s="9">
-        <v>3333621.69</v>
+        <v>8938171.3699999992</v>
       </c>
       <c r="P11" s="9"/>
       <c r="Q11" s="9"/>
-      <c r="R11" s="15">
-        <v>15668597.439999999</v>
+      <c r="R11" s="9">
+        <v>10730819.359999999</v>
       </c>
       <c r="S11" s="9">
-        <v>-106500000</v>
+        <v>-141100350.93000001</v>
       </c>
       <c r="T11" s="9">
-        <v>-161024.79</v>
+        <v>53954.92</v>
       </c>
       <c r="U11" s="9">
-        <v>134332.23000000001</v>
+        <v>-866599.42</v>
       </c>
       <c r="V11" s="9">
-        <v>-58823066.57</v>
+        <v>11147925.32</v>
       </c>
       <c r="W11" s="9">
-        <v>9528978.8800000008</v>
+        <v>32017208.93</v>
       </c>
       <c r="X11" s="9"/>
       <c r="Y11" s="9"/>
@@ -5979,75 +9108,75 @@
       <c r="AA11" s="9"/>
       <c r="AB11" s="9"/>
     </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:28" ht="15.75">
       <c r="A12">
         <f t="shared" si="5"/>
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="B12" s="9">
-        <v>45143297.100000001</v>
+        <v>222218569.81999999</v>
       </c>
       <c r="C12" s="9">
-        <v>44531588.109999999</v>
+        <v>209675498.90000001</v>
       </c>
       <c r="D12" s="9">
-        <v>115049206.02</v>
+        <v>222218569.81999999</v>
       </c>
       <c r="E12" s="9">
-        <v>104004060.42</v>
+        <v>294952116.56999999</v>
       </c>
       <c r="F12" s="2">
         <f t="shared" si="0"/>
-        <v>0.38706558394030716</v>
+        <v>0.94355525314486521</v>
       </c>
       <c r="G12" s="2">
         <f t="shared" si="1"/>
-        <v>0.90399633355070763</v>
+        <v>1.3273063399198148</v>
       </c>
       <c r="H12" s="9">
         <f t="shared" si="2"/>
-        <v>104004060.42</v>
+        <v>120269539.19</v>
       </c>
       <c r="I12" s="9">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>-174682577.38</v>
       </c>
       <c r="J12" s="9">
-        <v>44515.96</v>
+        <v>644099.18000000005</v>
       </c>
       <c r="K12" s="2">
         <f t="shared" si="4"/>
-        <v>3.8692974545397041E-4</v>
+        <v>2.8984939490958339E-3</v>
       </c>
       <c r="L12" s="9">
-        <v>27139538.039999999</v>
+        <v>29621373.190000001</v>
       </c>
       <c r="M12" s="9">
-        <v>4606462.08</v>
+        <v>4604058.12</v>
       </c>
       <c r="N12" s="9"/>
       <c r="O12" s="9">
-        <v>27486.34</v>
+        <v>3333621.69</v>
       </c>
       <c r="P12" s="9"/>
       <c r="Q12" s="9"/>
-      <c r="R12" s="9">
-        <v>20077758</v>
+      <c r="R12" s="15">
+        <v>15668597.439999999</v>
       </c>
       <c r="S12" s="9">
-        <v>-62000000</v>
+        <v>-106500000</v>
       </c>
       <c r="T12" s="9">
-        <v>-11128.99</v>
+        <v>-161024.79</v>
       </c>
       <c r="U12" s="9">
-        <v>-210289.28</v>
+        <v>134332.23000000001</v>
       </c>
       <c r="V12" s="9">
-        <v>-217323.55</v>
+        <v>-58823066.57</v>
       </c>
       <c r="W12" s="9">
-        <v>-502164.2</v>
+        <v>9528978.8800000008</v>
       </c>
       <c r="X12" s="9"/>
       <c r="Y12" s="9"/>
@@ -6055,97 +9184,75 @@
       <c r="AA12" s="9"/>
       <c r="AB12" s="9"/>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>77</v>
+    <row r="13" spans="1:28">
+      <c r="A13">
+        <f t="shared" si="5"/>
+        <v>2010</v>
       </c>
       <c r="B13" s="9">
-        <f>SUM(B4:B12)</f>
-        <v>870213224.79999995</v>
+        <v>163337928.84</v>
       </c>
       <c r="C13" s="9">
-        <f>SUM(C4:C12)</f>
-        <v>840575251.20000005</v>
+        <v>171313880.69</v>
       </c>
       <c r="D13" s="9">
-        <f>SUM(D4:D12)</f>
-        <v>5129749434.8400002</v>
+        <v>163337928.84</v>
       </c>
       <c r="E13" s="9">
-        <f>SUM(E4:E12)</f>
-        <v>6716568403.4399996</v>
+        <v>250359905.77000001</v>
       </c>
       <c r="F13" s="2">
         <f t="shared" si="0"/>
-        <v>0.16386282836565449</v>
+        <v>1.0488309843686885</v>
       </c>
       <c r="G13" s="2">
         <f t="shared" si="1"/>
-        <v>1.3093365453335233</v>
+        <v>1.5327726238970718</v>
       </c>
       <c r="H13" s="9">
         <f t="shared" si="2"/>
-        <v>6716568403.4399996</v>
+        <v>152292783.24000001</v>
       </c>
       <c r="I13" s="9">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>-98067122.530000001</v>
       </c>
       <c r="J13" s="9">
-        <f t="shared" ref="J13:W13" si="6">SUM(J4:J12)</f>
-        <v>47455596.959999993</v>
+        <v>44515.96</v>
       </c>
       <c r="K13" s="2">
         <f t="shared" si="4"/>
-        <v>9.2510555462403717E-3</v>
+        <v>2.7253902578626573E-4</v>
       </c>
       <c r="L13" s="9">
-        <f t="shared" si="6"/>
-        <v>945369177.47000015</v>
+        <v>27139538.039999999</v>
       </c>
       <c r="M13" s="9">
-        <f t="shared" si="6"/>
-        <v>179235288.81000003</v>
-      </c>
-      <c r="N13" s="9">
-        <f t="shared" si="6"/>
-        <v>124372913.16000001</v>
-      </c>
+        <v>4606462.08</v>
+      </c>
+      <c r="N13" s="9"/>
       <c r="O13" s="9">
-        <f t="shared" si="6"/>
-        <v>34293915.189999998</v>
-      </c>
-      <c r="P13" s="9">
-        <f t="shared" si="6"/>
-        <v>86575750.810000002</v>
-      </c>
-      <c r="Q13" s="9">
-        <f>SUM(Q4:Q12)</f>
-        <v>-10884221.020000001</v>
-      </c>
+        <v>27486.34</v>
+      </c>
+      <c r="P13" s="9"/>
+      <c r="Q13" s="9"/>
       <c r="R13" s="9">
-        <f t="shared" si="6"/>
-        <v>104608479.31999999</v>
+        <v>20077758</v>
       </c>
       <c r="S13" s="9">
-        <f t="shared" si="6"/>
-        <v>-427089929.58000004</v>
+        <v>-62000000</v>
       </c>
       <c r="T13" s="9">
-        <f t="shared" si="6"/>
-        <v>-8564545.5700000003</v>
+        <v>-11128.99</v>
       </c>
       <c r="U13" s="9">
-        <f t="shared" si="6"/>
-        <v>-2988630.3</v>
+        <v>-210289.28</v>
       </c>
       <c r="V13" s="9">
-        <f t="shared" si="6"/>
-        <v>-433813692.45999998</v>
+        <v>-217323.55</v>
       </c>
       <c r="W13" s="9">
-        <f t="shared" si="6"/>
-        <v>948248865.80999982</v>
+        <v>-502164.2</v>
       </c>
       <c r="X13" s="9"/>
       <c r="Y13" s="9"/>
@@ -6153,35 +9260,105 @@
       <c r="AA13" s="9"/>
       <c r="AB13" s="9"/>
     </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9"/>
-      <c r="I14" s="9"/>
-      <c r="J14" s="9"/>
-      <c r="K14" s="9"/>
-      <c r="L14" s="9"/>
-      <c r="M14" s="9"/>
-      <c r="N14" s="9"/>
-      <c r="O14" s="9"/>
-      <c r="P14" s="9"/>
-      <c r="Q14" s="9"/>
-      <c r="R14" s="9"/>
-      <c r="S14" s="9"/>
-      <c r="T14" s="9"/>
-      <c r="U14" s="9"/>
-      <c r="V14" s="9"/>
-      <c r="W14" s="9"/>
+    <row r="14" spans="1:28">
+      <c r="A14" t="s">
+        <v>77</v>
+      </c>
+      <c r="B14" s="9">
+        <f>SUM(B4:B13)</f>
+        <v>6539165191.3600006</v>
+      </c>
+      <c r="C14" s="9">
+        <f>SUM(C4:C13)</f>
+        <v>6361253755.3399992</v>
+      </c>
+      <c r="D14" s="9">
+        <f>SUM(D4:D13)</f>
+        <v>6581241939.9799995</v>
+      </c>
+      <c r="E14" s="9">
+        <f>SUM(E4:E13)</f>
+        <v>8826497143.6799984</v>
+      </c>
+      <c r="F14" s="2">
+        <f t="shared" si="0"/>
+        <v>0.96657345427409269</v>
+      </c>
+      <c r="G14" s="2">
+        <f t="shared" si="1"/>
+        <v>1.341159802994087</v>
+      </c>
+      <c r="H14" s="9">
+        <f t="shared" si="2"/>
+        <v>8168060908.579999</v>
+      </c>
+      <c r="I14" s="9">
+        <f t="shared" si="3"/>
+        <v>-658436235.09999943</v>
+      </c>
+      <c r="J14" s="9">
+        <f t="shared" ref="J14:W14" si="6">SUM(J5:J13)</f>
+        <v>47455596.959999993</v>
+      </c>
+      <c r="K14" s="2">
+        <f t="shared" si="4"/>
+        <v>7.2107358144235332E-3</v>
+      </c>
+      <c r="L14" s="9">
+        <f t="shared" si="6"/>
+        <v>945369177.47000015</v>
+      </c>
+      <c r="M14" s="9">
+        <f t="shared" si="6"/>
+        <v>179235288.81000003</v>
+      </c>
+      <c r="N14" s="9">
+        <f t="shared" si="6"/>
+        <v>124372913.16000001</v>
+      </c>
+      <c r="O14" s="9">
+        <f t="shared" si="6"/>
+        <v>34293915.189999998</v>
+      </c>
+      <c r="P14" s="9">
+        <f t="shared" si="6"/>
+        <v>86575750.810000002</v>
+      </c>
+      <c r="Q14" s="9">
+        <f>SUM(Q5:Q13)</f>
+        <v>-10884221.020000001</v>
+      </c>
+      <c r="R14" s="9">
+        <f t="shared" si="6"/>
+        <v>104608479.31999999</v>
+      </c>
+      <c r="S14" s="9">
+        <f t="shared" si="6"/>
+        <v>-427089929.58000004</v>
+      </c>
+      <c r="T14" s="9">
+        <f t="shared" si="6"/>
+        <v>-8564545.5700000003</v>
+      </c>
+      <c r="U14" s="9">
+        <f t="shared" si="6"/>
+        <v>-2988630.3</v>
+      </c>
+      <c r="V14" s="9">
+        <f t="shared" si="6"/>
+        <v>-433813692.45999998</v>
+      </c>
+      <c r="W14" s="9">
+        <f t="shared" si="6"/>
+        <v>948248865.80999982</v>
+      </c>
       <c r="X14" s="9"/>
       <c r="Y14" s="9"/>
       <c r="Z14" s="9"/>
       <c r="AA14" s="9"/>
       <c r="AB14" s="9"/>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:28">
       <c r="C15" s="9"/>
       <c r="D15" s="9"/>
       <c r="E15" s="9"/>
@@ -6207,24 +9384,21 @@
       <c r="Y15" s="9"/>
       <c r="Z15" s="9"/>
       <c r="AA15" s="9"/>
-    </row>
-    <row r="16" spans="1:28" ht="170" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="21" t="s">
-        <v>109</v>
-      </c>
-      <c r="B16" s="22"/>
-      <c r="C16" s="22"/>
-      <c r="D16" s="22"/>
-      <c r="E16" s="22"/>
-      <c r="F16" s="22"/>
-      <c r="G16" s="22"/>
-      <c r="H16" s="22"/>
-      <c r="I16" s="22"/>
-      <c r="J16" s="22"/>
-      <c r="K16" s="22"/>
-      <c r="L16" s="22"/>
-      <c r="M16" s="22"/>
-      <c r="N16" s="22"/>
+      <c r="AB15" s="9"/>
+    </row>
+    <row r="16" spans="1:28">
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="9"/>
+      <c r="L16" s="9"/>
+      <c r="M16" s="9"/>
+      <c r="N16" s="9"/>
       <c r="O16" s="9"/>
       <c r="P16" s="9"/>
       <c r="Q16" s="9"/>
@@ -6239,21 +9413,23 @@
       <c r="Z16" s="9"/>
       <c r="AA16" s="9"/>
     </row>
-    <row r="17" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A17" s="14"/>
-      <c r="B17" s="14"/>
-      <c r="C17" s="14"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="14"/>
-      <c r="G17" s="14"/>
-      <c r="H17" s="14"/>
-      <c r="I17" s="14"/>
-      <c r="J17" s="14"/>
-      <c r="K17" s="14"/>
-      <c r="L17" s="14"/>
-      <c r="M17" s="14"/>
-      <c r="N17" s="14"/>
+    <row r="17" spans="1:27" ht="170.1" customHeight="1">
+      <c r="A17" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="B17" s="22"/>
+      <c r="C17" s="22"/>
+      <c r="D17" s="22"/>
+      <c r="E17" s="22"/>
+      <c r="F17" s="22"/>
+      <c r="G17" s="22"/>
+      <c r="H17" s="22"/>
+      <c r="I17" s="22"/>
+      <c r="J17" s="22"/>
+      <c r="K17" s="22"/>
+      <c r="L17" s="22"/>
+      <c r="M17" s="22"/>
+      <c r="N17" s="22"/>
       <c r="O17" s="9"/>
       <c r="P17" s="9"/>
       <c r="Q17" s="9"/>
@@ -6268,8 +9444,8 @@
       <c r="Z17" s="9"/>
       <c r="AA17" s="9"/>
     </row>
-    <row r="18" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A18" s="12"/>
+    <row r="18" spans="1:27">
+      <c r="A18" s="14"/>
       <c r="B18" s="14"/>
       <c r="C18" s="14"/>
       <c r="D18" s="14"/>
@@ -6282,7 +9458,7 @@
       <c r="K18" s="14"/>
       <c r="L18" s="14"/>
       <c r="M18" s="14"/>
-      <c r="N18" s="9"/>
+      <c r="N18" s="14"/>
       <c r="O18" s="9"/>
       <c r="P18" s="9"/>
       <c r="Q18" s="9"/>
@@ -6297,12 +9473,42 @@
       <c r="Z18" s="9"/>
       <c r="AA18" s="9"/>
     </row>
+    <row r="19" spans="1:27">
+      <c r="A19" s="12"/>
+      <c r="B19" s="14"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="14"/>
+      <c r="H19" s="14"/>
+      <c r="I19" s="14"/>
+      <c r="J19" s="14"/>
+      <c r="K19" s="14"/>
+      <c r="L19" s="14"/>
+      <c r="M19" s="14"/>
+      <c r="N19" s="9"/>
+      <c r="O19" s="9"/>
+      <c r="P19" s="9"/>
+      <c r="Q19" s="9"/>
+      <c r="R19" s="9"/>
+      <c r="S19" s="9"/>
+      <c r="T19" s="9"/>
+      <c r="U19" s="9"/>
+      <c r="V19" s="9"/>
+      <c r="W19" s="9"/>
+      <c r="X19" s="9"/>
+      <c r="Y19" s="9"/>
+      <c r="Z19" s="9"/>
+      <c r="AA19" s="9"/>
+    </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A16:N16"/>
+    <mergeCell ref="A17:N17"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -6311,12 +9517,12 @@
   <dimension ref="B3:L5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L17" sqref="L17"/>
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
   <sheetData>
-    <row r="3" spans="2:12" ht="21" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:12" ht="20.25">
       <c r="B3" s="10"/>
       <c r="C3" s="10">
         <v>2009</v>
@@ -6349,7 +9555,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="4" spans="2:12" ht="21" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:12" ht="20.25">
       <c r="B4" s="10" t="s">
         <v>122</v>
       </c>
@@ -6384,7 +9590,7 @@
         <v>3211</v>
       </c>
     </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:12">
       <c r="D5" s="2">
         <f>(D4-C4)/C4</f>
         <v>0.63003663003663002</v>
@@ -6425,6 +9631,7 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -6436,16 +9643,16 @@
       <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
   <cols>
-    <col min="2" max="4" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="16.6640625" customWidth="1"/>
-    <col min="7" max="7" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.1640625" customWidth="1"/>
+    <col min="2" max="4" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="16.625" customWidth="1"/>
+    <col min="7" max="7" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:12" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" ht="33.950000000000003" customHeight="1">
       <c r="A3" t="s">
         <v>66</v>
       </c>
@@ -6483,7 +9690,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12">
       <c r="A4">
         <v>2018</v>
       </c>
@@ -6523,7 +9730,7 @@
         <v>1179835774.04</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12">
       <c r="A5">
         <f>A4-1</f>
         <v>2017</v>
@@ -6564,7 +9771,7 @@
         <v>982816157.38</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12">
       <c r="A6">
         <f t="shared" ref="A6:A12" si="2">A5-1</f>
         <v>2016</v>
@@ -6578,7 +9785,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12">
       <c r="A7">
         <f t="shared" si="2"/>
         <v>2015</v>
@@ -6592,7 +9799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12">
       <c r="A8">
         <f t="shared" si="2"/>
         <v>2014</v>
@@ -6606,7 +9813,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12">
       <c r="A9">
         <f t="shared" si="2"/>
         <v>2013</v>
@@ -6620,7 +9827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12">
       <c r="A10">
         <f t="shared" si="2"/>
         <v>2012</v>
@@ -6634,7 +9841,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12">
       <c r="A11">
         <f t="shared" si="2"/>
         <v>2011</v>
@@ -6660,7 +9867,7 @@
         <v>145953013.31</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12">
       <c r="A12">
         <f t="shared" si="2"/>
         <v>2010</v>
@@ -6680,7 +9887,7 @@
         <v>69577424.079999998</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12">
       <c r="F13" s="2"/>
       <c r="L13" s="4"/>
     </row>
@@ -6688,4 +9895,783 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:X39"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="G33" sqref="G33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="13.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="17.125" customWidth="1"/>
+    <col min="4" max="4" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.625" customWidth="1"/>
+    <col min="6" max="6" width="14" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14" customWidth="1"/>
+    <col min="8" max="9" width="13" customWidth="1"/>
+    <col min="10" max="10" width="14" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14" customWidth="1"/>
+    <col min="12" max="13" width="13.625" customWidth="1"/>
+    <col min="14" max="15" width="17.875" customWidth="1"/>
+    <col min="16" max="17" width="16.875" customWidth="1"/>
+    <col min="18" max="19" width="17" customWidth="1"/>
+    <col min="20" max="20" width="17.75" customWidth="1"/>
+    <col min="22" max="22" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="16.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="24" t="s">
+        <v>124</v>
+      </c>
+      <c r="B1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="15">
+      <c r="A2" s="23">
+        <v>40543</v>
+      </c>
+      <c r="B2" s="9">
+        <v>444756700</v>
+      </c>
+      <c r="C2" s="9"/>
+    </row>
+    <row r="3" spans="1:3" ht="15">
+      <c r="A3" s="23">
+        <v>40908</v>
+      </c>
+      <c r="B3" s="9">
+        <v>504532200</v>
+      </c>
+      <c r="C3" s="9"/>
+    </row>
+    <row r="4" spans="1:3" ht="15">
+      <c r="A4" s="23">
+        <v>41274</v>
+      </c>
+      <c r="B4" s="9">
+        <v>586157100</v>
+      </c>
+      <c r="C4" s="9"/>
+    </row>
+    <row r="5" spans="1:3" ht="15">
+      <c r="A5" s="23">
+        <v>41639</v>
+      </c>
+      <c r="B5" s="9">
+        <v>678715900</v>
+      </c>
+      <c r="C5" s="9"/>
+    </row>
+    <row r="6" spans="1:3" ht="15">
+      <c r="A6" s="23">
+        <v>42004</v>
+      </c>
+      <c r="B6" s="9">
+        <v>935119100</v>
+      </c>
+      <c r="C6" s="9"/>
+    </row>
+    <row r="7" spans="1:3" ht="15">
+      <c r="A7" s="23">
+        <v>42369</v>
+      </c>
+      <c r="B7" s="9">
+        <v>1694514000</v>
+      </c>
+      <c r="C7" s="9"/>
+    </row>
+    <row r="8" spans="1:3" ht="15">
+      <c r="A8" s="23">
+        <v>42735</v>
+      </c>
+      <c r="B8" s="9">
+        <v>2644229000</v>
+      </c>
+      <c r="C8" s="9"/>
+    </row>
+    <row r="9" spans="1:3" ht="15">
+      <c r="A9" s="23">
+        <v>43100</v>
+      </c>
+      <c r="B9" s="1">
+        <v>3023831000</v>
+      </c>
+      <c r="C9" s="1"/>
+    </row>
+    <row r="10" spans="1:3" ht="15">
+      <c r="A10" s="23">
+        <v>43465</v>
+      </c>
+      <c r="B10" s="1">
+        <v>3211193000</v>
+      </c>
+      <c r="C10" s="1"/>
+    </row>
+    <row r="11" spans="1:3" ht="15">
+      <c r="A11" s="23">
+        <v>43830</v>
+      </c>
+      <c r="B11" s="1">
+        <v>2611753000</v>
+      </c>
+      <c r="C11" s="1"/>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14">
+        <f>POWER(B11/B2,1/9)-1</f>
+        <v>0.21737194569158902</v>
+      </c>
+    </row>
+    <row r="29" spans="1:24">
+      <c r="A29" s="24" t="s">
+        <v>124</v>
+      </c>
+      <c r="B29" t="s">
+        <v>126</v>
+      </c>
+      <c r="C29" t="s">
+        <v>135</v>
+      </c>
+      <c r="D29" t="s">
+        <v>127</v>
+      </c>
+      <c r="F29" t="s">
+        <v>128</v>
+      </c>
+      <c r="H29" t="s">
+        <v>129</v>
+      </c>
+      <c r="J29" t="s">
+        <v>130</v>
+      </c>
+      <c r="L29" t="s">
+        <v>131</v>
+      </c>
+      <c r="N29" t="s">
+        <v>132</v>
+      </c>
+      <c r="P29" t="s">
+        <v>133</v>
+      </c>
+      <c r="R29" t="s">
+        <v>134</v>
+      </c>
+      <c r="T29" t="s">
+        <v>137</v>
+      </c>
+      <c r="V29" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="30" spans="1:24" ht="15">
+      <c r="A30" s="23">
+        <v>40543</v>
+      </c>
+      <c r="B30" s="9">
+        <v>444756700</v>
+      </c>
+      <c r="C30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="G30" s="2"/>
+      <c r="I30" s="2"/>
+      <c r="K30" s="2"/>
+      <c r="M30" s="2"/>
+      <c r="O30" s="2"/>
+      <c r="Q30" s="2"/>
+      <c r="S30" s="2"/>
+      <c r="T30" s="25"/>
+      <c r="U30" s="2"/>
+      <c r="V30" s="1">
+        <f t="shared" ref="V30:V38" si="0">T30+R30+P30+N30+L30+J30+F30+D30+B30+H30</f>
+        <v>444756700</v>
+      </c>
+      <c r="W30" s="9">
+        <v>444756700</v>
+      </c>
+      <c r="X30" s="9"/>
+    </row>
+    <row r="31" spans="1:24" ht="15">
+      <c r="A31" s="23">
+        <v>40908</v>
+      </c>
+      <c r="B31" s="9">
+        <v>504532200</v>
+      </c>
+      <c r="C31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="G31" s="2"/>
+      <c r="I31" s="2"/>
+      <c r="K31" s="2"/>
+      <c r="M31" s="2"/>
+      <c r="O31" s="2"/>
+      <c r="Q31" s="2"/>
+      <c r="S31" s="2"/>
+      <c r="T31" s="25"/>
+      <c r="U31" s="2"/>
+      <c r="V31" s="1">
+        <f t="shared" si="0"/>
+        <v>504532200</v>
+      </c>
+      <c r="W31" s="9">
+        <v>504532200</v>
+      </c>
+      <c r="X31" s="9"/>
+    </row>
+    <row r="32" spans="1:24" ht="15">
+      <c r="A32" s="23">
+        <v>41274</v>
+      </c>
+      <c r="B32" s="9">
+        <v>586157100</v>
+      </c>
+      <c r="C32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="G32" s="2"/>
+      <c r="I32" s="2"/>
+      <c r="K32" s="2"/>
+      <c r="M32" s="2"/>
+      <c r="O32" s="2"/>
+      <c r="Q32" s="2"/>
+      <c r="S32" s="2"/>
+      <c r="T32" s="25"/>
+      <c r="U32" s="2"/>
+      <c r="V32" s="1">
+        <f t="shared" si="0"/>
+        <v>586157100</v>
+      </c>
+      <c r="W32" s="9">
+        <v>586157100</v>
+      </c>
+      <c r="X32" s="9"/>
+    </row>
+    <row r="33" spans="1:24" ht="15">
+      <c r="A33" s="23">
+        <v>41639</v>
+      </c>
+      <c r="B33" s="9">
+        <v>585587954.86000001</v>
+      </c>
+      <c r="C33" s="2"/>
+      <c r="D33" s="4">
+        <v>33567890.960000001</v>
+      </c>
+      <c r="E33" s="2"/>
+      <c r="G33" s="2"/>
+      <c r="I33" s="2"/>
+      <c r="K33" s="2"/>
+      <c r="M33" s="2"/>
+      <c r="O33" s="2"/>
+      <c r="P33" s="4">
+        <v>3818769.58</v>
+      </c>
+      <c r="Q33" s="2"/>
+      <c r="R33" s="4">
+        <v>12264150.6</v>
+      </c>
+      <c r="S33" s="2"/>
+      <c r="T33" s="25">
+        <v>43477134</v>
+      </c>
+      <c r="U33" s="2"/>
+      <c r="V33" s="1">
+        <f t="shared" si="0"/>
+        <v>678715900</v>
+      </c>
+      <c r="W33" s="9">
+        <v>678715900</v>
+      </c>
+      <c r="X33" s="9"/>
+    </row>
+    <row r="34" spans="1:24" ht="15">
+      <c r="A34" s="23">
+        <v>42004</v>
+      </c>
+      <c r="B34" s="9">
+        <v>609812284.89999998</v>
+      </c>
+      <c r="C34" s="2">
+        <v>0.65210000000000001</v>
+      </c>
+      <c r="D34" s="4">
+        <v>159582817.34</v>
+      </c>
+      <c r="E34" s="2">
+        <v>0.17069999999999999</v>
+      </c>
+      <c r="F34" s="4">
+        <v>73933364.819999993</v>
+      </c>
+      <c r="G34" s="2">
+        <v>7.9100000000000004E-2</v>
+      </c>
+      <c r="H34" s="4">
+        <v>63465841.310000002</v>
+      </c>
+      <c r="I34" s="2">
+        <v>6.7900000000000002E-2</v>
+      </c>
+      <c r="K34" s="2"/>
+      <c r="M34" s="2"/>
+      <c r="O34" s="2"/>
+      <c r="P34" s="4">
+        <v>17516318.469999999</v>
+      </c>
+      <c r="Q34" s="2">
+        <v>1.8700000000000001E-2</v>
+      </c>
+      <c r="R34" s="4">
+        <v>10808503.359999999</v>
+      </c>
+      <c r="S34" s="2">
+        <v>1.15E-2</v>
+      </c>
+      <c r="T34" s="25"/>
+      <c r="U34" s="2"/>
+      <c r="V34" s="1">
+        <f t="shared" si="0"/>
+        <v>935119130.20000005</v>
+      </c>
+      <c r="W34" s="9">
+        <v>935119100</v>
+      </c>
+      <c r="X34" s="9"/>
+    </row>
+    <row r="35" spans="1:24" ht="15">
+      <c r="A35" s="23">
+        <v>42369</v>
+      </c>
+      <c r="B35" s="9">
+        <v>700754733.73000002</v>
+      </c>
+      <c r="C35" s="2">
+        <v>0.41349999999999998</v>
+      </c>
+      <c r="D35" s="4">
+        <v>257852071.96000001</v>
+      </c>
+      <c r="E35" s="2">
+        <v>0.1522</v>
+      </c>
+      <c r="F35" s="4">
+        <v>171198719.31</v>
+      </c>
+      <c r="G35" s="2">
+        <v>0.10100000000000001</v>
+      </c>
+      <c r="H35" s="4">
+        <v>131115944.73999999</v>
+      </c>
+      <c r="I35" s="2">
+        <v>7.7399999999999997E-2</v>
+      </c>
+      <c r="K35" s="2"/>
+      <c r="M35" s="2"/>
+      <c r="N35" s="4">
+        <v>369099362.92000002</v>
+      </c>
+      <c r="O35" s="2">
+        <v>0.21779999999999999</v>
+      </c>
+      <c r="P35" s="4">
+        <v>43827382.159999996</v>
+      </c>
+      <c r="Q35" s="2">
+        <v>2.5899999999999999E-2</v>
+      </c>
+      <c r="R35" s="4">
+        <v>17063305.18</v>
+      </c>
+      <c r="S35" s="2">
+        <v>1.01E-2</v>
+      </c>
+      <c r="T35" s="25"/>
+      <c r="U35" s="2"/>
+      <c r="V35" s="1">
+        <f t="shared" si="0"/>
+        <v>1690911520</v>
+      </c>
+      <c r="W35" s="9">
+        <v>1694514000</v>
+      </c>
+      <c r="X35" s="9"/>
+    </row>
+    <row r="36" spans="1:24" ht="15">
+      <c r="A36" s="23">
+        <v>42735</v>
+      </c>
+      <c r="B36" s="9">
+        <v>687874826.88999999</v>
+      </c>
+      <c r="C36" s="2">
+        <v>0.2601</v>
+      </c>
+      <c r="D36" s="4">
+        <v>307467248.97000003</v>
+      </c>
+      <c r="E36" s="2">
+        <v>0.1163</v>
+      </c>
+      <c r="F36" s="4">
+        <v>222559993.77000001</v>
+      </c>
+      <c r="G36" s="2">
+        <v>8.4199999999999997E-2</v>
+      </c>
+      <c r="H36" s="4">
+        <v>149279367.16</v>
+      </c>
+      <c r="I36" s="2">
+        <v>5.6399999999999999E-2</v>
+      </c>
+      <c r="K36" s="2"/>
+      <c r="M36" s="2"/>
+      <c r="N36" s="4">
+        <v>1090212510.98</v>
+      </c>
+      <c r="O36" s="2">
+        <v>0.4123</v>
+      </c>
+      <c r="P36" s="4">
+        <v>60018274.359999999</v>
+      </c>
+      <c r="Q36" s="2">
+        <v>2.2700000000000001E-2</v>
+      </c>
+      <c r="R36" s="4">
+        <v>123204706.73999999</v>
+      </c>
+      <c r="S36" s="2">
+        <v>4.6600000000000003E-2</v>
+      </c>
+      <c r="T36" s="25">
+        <v>3611972.78</v>
+      </c>
+      <c r="U36" s="2">
+        <v>1.4E-3</v>
+      </c>
+      <c r="V36" s="1">
+        <f t="shared" si="0"/>
+        <v>2644228901.6500001</v>
+      </c>
+      <c r="W36" s="9">
+        <v>2644229000</v>
+      </c>
+      <c r="X36" s="9"/>
+    </row>
+    <row r="37" spans="1:24" ht="15">
+      <c r="A37" s="23">
+        <v>43100</v>
+      </c>
+      <c r="B37" s="1">
+        <v>842165471.04999995</v>
+      </c>
+      <c r="C37" s="2">
+        <v>0.27850000000000003</v>
+      </c>
+      <c r="D37" s="4">
+        <v>339980121.20999998</v>
+      </c>
+      <c r="E37" s="2">
+        <v>0.1124</v>
+      </c>
+      <c r="F37" s="4">
+        <v>227236394.38</v>
+      </c>
+      <c r="G37" s="2">
+        <v>7.51E-2</v>
+      </c>
+      <c r="H37" s="4">
+        <v>90585086.010000005</v>
+      </c>
+      <c r="I37" s="2">
+        <v>0.03</v>
+      </c>
+      <c r="K37" s="2"/>
+      <c r="M37" s="2"/>
+      <c r="N37" s="4">
+        <v>1240133995.3599999</v>
+      </c>
+      <c r="O37" s="2">
+        <v>0.41010000000000002</v>
+      </c>
+      <c r="P37" s="4">
+        <v>120577904.09999999</v>
+      </c>
+      <c r="Q37" s="2">
+        <v>3.9899999999999998E-2</v>
+      </c>
+      <c r="R37" s="4">
+        <v>163152259.15000001</v>
+      </c>
+      <c r="S37" s="2">
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="T37" s="25"/>
+      <c r="U37" s="2"/>
+      <c r="V37" s="1">
+        <f t="shared" si="0"/>
+        <v>3023831231.2600002</v>
+      </c>
+      <c r="W37" s="1">
+        <v>3023831000</v>
+      </c>
+      <c r="X37" s="1"/>
+    </row>
+    <row r="38" spans="1:24" ht="15">
+      <c r="A38" s="23">
+        <v>43465</v>
+      </c>
+      <c r="B38" s="1">
+        <v>935878252.92999995</v>
+      </c>
+      <c r="C38" s="2">
+        <v>0.29139999999999999</v>
+      </c>
+      <c r="D38" s="4">
+        <v>426722284</v>
+      </c>
+      <c r="E38" s="2">
+        <v>0.13289999999999999</v>
+      </c>
+      <c r="F38" s="4">
+        <v>266958976.72999999</v>
+      </c>
+      <c r="G38" s="2">
+        <v>8.3099999999999993E-2</v>
+      </c>
+      <c r="H38" s="4">
+        <v>1778339.57</v>
+      </c>
+      <c r="I38" s="2">
+        <v>5.9999999999999995E-4</v>
+      </c>
+      <c r="J38" s="4">
+        <v>42659643.259999998</v>
+      </c>
+      <c r="K38" s="2">
+        <v>1.3299999999999999E-2</v>
+      </c>
+      <c r="M38" s="2"/>
+      <c r="N38" s="4">
+        <v>1233596141.03</v>
+      </c>
+      <c r="O38" s="2">
+        <v>0.38419999999999999</v>
+      </c>
+      <c r="P38" s="4">
+        <v>173487760.90000001</v>
+      </c>
+      <c r="Q38" s="2">
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="R38" s="4">
+        <v>126677207.77</v>
+      </c>
+      <c r="S38" s="2">
+        <v>3.9399999999999998E-2</v>
+      </c>
+      <c r="T38" s="25">
+        <v>3434208.29</v>
+      </c>
+      <c r="U38" s="2">
+        <v>1.1000000000000001E-3</v>
+      </c>
+      <c r="V38" s="1">
+        <f t="shared" si="0"/>
+        <v>3211192814.48</v>
+      </c>
+      <c r="W38" s="1">
+        <v>3211193000</v>
+      </c>
+      <c r="X38" s="1"/>
+    </row>
+    <row r="39" spans="1:24" ht="15">
+      <c r="A39" s="23">
+        <v>43830</v>
+      </c>
+      <c r="B39" s="1">
+        <v>918884614.28999996</v>
+      </c>
+      <c r="C39" s="2">
+        <v>0.3518</v>
+      </c>
+      <c r="D39" s="4">
+        <v>392729155.06</v>
+      </c>
+      <c r="E39" s="2">
+        <v>0.15040000000000001</v>
+      </c>
+      <c r="F39" s="4">
+        <v>333433832.56999999</v>
+      </c>
+      <c r="G39" s="2">
+        <v>0.12770000000000001</v>
+      </c>
+      <c r="I39" s="2"/>
+      <c r="J39" s="4">
+        <v>160649726.50999999</v>
+      </c>
+      <c r="K39" s="2">
+        <v>6.1499999999999999E-2</v>
+      </c>
+      <c r="L39" s="4">
+        <v>65470605.659999996</v>
+      </c>
+      <c r="M39" s="2">
+        <v>2.5100000000000001E-2</v>
+      </c>
+      <c r="N39" s="4">
+        <v>383412284.25</v>
+      </c>
+      <c r="O39" s="2">
+        <v>0.14680000000000001</v>
+      </c>
+      <c r="P39" s="4">
+        <v>180426687.71000001</v>
+      </c>
+      <c r="Q39" s="2">
+        <v>6.9099999999999995E-2</v>
+      </c>
+      <c r="R39" s="4">
+        <v>173281416.46000001</v>
+      </c>
+      <c r="S39" s="2">
+        <v>6.6299999999999998E-2</v>
+      </c>
+      <c r="T39" s="25">
+        <v>3464886.35</v>
+      </c>
+      <c r="U39" s="2">
+        <v>1.2999999999999999E-3</v>
+      </c>
+      <c r="V39" s="1">
+        <f>T39+R39+P39+N39+L39+J39+F39+D39+B39+H39</f>
+        <v>2611753208.8599997</v>
+      </c>
+      <c r="W39" s="1">
+        <v>2611753000</v>
+      </c>
+      <c r="X39" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L28" sqref="L28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="13.25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="15">
+      <c r="A2" s="23">
+        <v>40543</v>
+      </c>
+      <c r="B2" s="2">
+        <v>0.11672299999999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="15">
+      <c r="A3" s="23">
+        <v>40908</v>
+      </c>
+      <c r="B3" s="2">
+        <v>8.4862999999999994E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="15">
+      <c r="A4" s="23">
+        <v>41274</v>
+      </c>
+      <c r="B4" s="2">
+        <v>9.1761999999999996E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="15">
+      <c r="A5" s="23">
+        <v>41639</v>
+      </c>
+      <c r="B5" s="2">
+        <v>0.102404</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="15">
+      <c r="A6" s="23">
+        <v>42004</v>
+      </c>
+      <c r="B6" s="2">
+        <v>0.110029</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="15">
+      <c r="A7" s="23">
+        <v>42369</v>
+      </c>
+      <c r="B7" s="2">
+        <v>0.13964099999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="15">
+      <c r="A8" s="23">
+        <v>42735</v>
+      </c>
+      <c r="B8" s="2">
+        <v>0.15029999999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="15">
+      <c r="A9" s="23">
+        <v>43100</v>
+      </c>
+      <c r="B9" s="2">
+        <v>0.15546399999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="15">
+      <c r="A10" s="23">
+        <v>43465</v>
+      </c>
+      <c r="B10" s="2">
+        <v>0.16292000000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="15">
+      <c r="A11" s="23">
+        <v>43830</v>
+      </c>
+      <c r="B11" s="2">
+        <v>0.14816499999999999</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/300144_宋城演艺/宋城演艺.xlsx
+++ b/300144_宋城演艺/宋城演艺.xlsx
@@ -16,7 +16,7 @@
     <sheet name="营收分析" sheetId="8" r:id="rId7"/>
     <sheet name="Sheet3" sheetId="9" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="162913" concurrentCalc="0"/>
+  <calcPr calcId="162913" iterateDelta="9.9999999999994451E-4"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="139">
   <si>
     <t>年份</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1400,6 +1400,10 @@
     <t>其他</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>西安宋城</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -1409,8 +1413,8 @@
     <numFmt numFmtId="176" formatCode="#,##0.00_ "/>
     <numFmt numFmtId="177" formatCode="#,##0.00;[Red]#,##0.00"/>
     <numFmt numFmtId="178" formatCode="#,##0.00_ ;[Red]\-#,##0.00\ "/>
-    <numFmt numFmtId="184" formatCode="yyyy"/>
-    <numFmt numFmtId="185" formatCode="#,##0.00_);[Red]\(#,##0.00\)"/>
+    <numFmt numFmtId="179" formatCode="yyyy"/>
+    <numFmt numFmtId="180" formatCode="#,##0.00_);[Red]\(#,##0.00\)"/>
   </numFmts>
   <fonts count="8">
     <font>
@@ -1527,19 +1531,19 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="179" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="184" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="185" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2668,8 +2672,9 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:noFill/>
+            <a:round/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -4553,7 +4558,7 @@
       <xdr:rowOff>19049</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
+      <xdr:col>27</xdr:col>
       <xdr:colOff>400050</xdr:colOff>
       <xdr:row>24</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
@@ -9414,22 +9419,22 @@
       <c r="AA16" s="9"/>
     </row>
     <row r="17" spans="1:27" ht="170.1" customHeight="1">
-      <c r="A17" s="21" t="s">
+      <c r="A17" s="24" t="s">
         <v>109</v>
       </c>
-      <c r="B17" s="22"/>
-      <c r="C17" s="22"/>
-      <c r="D17" s="22"/>
-      <c r="E17" s="22"/>
-      <c r="F17" s="22"/>
-      <c r="G17" s="22"/>
-      <c r="H17" s="22"/>
-      <c r="I17" s="22"/>
-      <c r="J17" s="22"/>
-      <c r="K17" s="22"/>
-      <c r="L17" s="22"/>
-      <c r="M17" s="22"/>
-      <c r="N17" s="22"/>
+      <c r="B17" s="25"/>
+      <c r="C17" s="25"/>
+      <c r="D17" s="25"/>
+      <c r="E17" s="25"/>
+      <c r="F17" s="25"/>
+      <c r="G17" s="25"/>
+      <c r="H17" s="25"/>
+      <c r="I17" s="25"/>
+      <c r="J17" s="25"/>
+      <c r="K17" s="25"/>
+      <c r="L17" s="25"/>
+      <c r="M17" s="25"/>
+      <c r="N17" s="25"/>
       <c r="O17" s="9"/>
       <c r="P17" s="9"/>
       <c r="Q17" s="9"/>
@@ -9899,10 +9904,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X39"/>
+  <dimension ref="A1:Z40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G33" sqref="G33"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C42" sqref="C42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -9916,17 +9921,17 @@
     <col min="8" max="9" width="13" customWidth="1"/>
     <col min="10" max="10" width="14" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="14" customWidth="1"/>
-    <col min="12" max="13" width="13.625" customWidth="1"/>
-    <col min="14" max="15" width="17.875" customWidth="1"/>
-    <col min="16" max="17" width="16.875" customWidth="1"/>
-    <col min="18" max="19" width="17" customWidth="1"/>
-    <col min="20" max="20" width="17.75" customWidth="1"/>
-    <col min="22" max="22" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="16.125" customWidth="1"/>
+    <col min="12" max="15" width="13.625" customWidth="1"/>
+    <col min="16" max="17" width="17.875" customWidth="1"/>
+    <col min="18" max="19" width="16.875" customWidth="1"/>
+    <col min="20" max="21" width="17" customWidth="1"/>
+    <col min="22" max="22" width="17.75" customWidth="1"/>
+    <col min="24" max="24" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="16.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="22" t="s">
         <v>124</v>
       </c>
       <c r="B1" t="s">
@@ -9934,7 +9939,7 @@
       </c>
     </row>
     <row r="2" spans="1:3" ht="15">
-      <c r="A2" s="23">
+      <c r="A2" s="21">
         <v>40543</v>
       </c>
       <c r="B2" s="9">
@@ -9943,7 +9948,7 @@
       <c r="C2" s="9"/>
     </row>
     <row r="3" spans="1:3" ht="15">
-      <c r="A3" s="23">
+      <c r="A3" s="21">
         <v>40908</v>
       </c>
       <c r="B3" s="9">
@@ -9952,7 +9957,7 @@
       <c r="C3" s="9"/>
     </row>
     <row r="4" spans="1:3" ht="15">
-      <c r="A4" s="23">
+      <c r="A4" s="21">
         <v>41274</v>
       </c>
       <c r="B4" s="9">
@@ -9961,7 +9966,7 @@
       <c r="C4" s="9"/>
     </row>
     <row r="5" spans="1:3" ht="15">
-      <c r="A5" s="23">
+      <c r="A5" s="21">
         <v>41639</v>
       </c>
       <c r="B5" s="9">
@@ -9970,7 +9975,7 @@
       <c r="C5" s="9"/>
     </row>
     <row r="6" spans="1:3" ht="15">
-      <c r="A6" s="23">
+      <c r="A6" s="21">
         <v>42004</v>
       </c>
       <c r="B6" s="9">
@@ -9979,7 +9984,7 @@
       <c r="C6" s="9"/>
     </row>
     <row r="7" spans="1:3" ht="15">
-      <c r="A7" s="23">
+      <c r="A7" s="21">
         <v>42369</v>
       </c>
       <c r="B7" s="9">
@@ -9988,7 +9993,7 @@
       <c r="C7" s="9"/>
     </row>
     <row r="8" spans="1:3" ht="15">
-      <c r="A8" s="23">
+      <c r="A8" s="21">
         <v>42735</v>
       </c>
       <c r="B8" s="9">
@@ -9997,7 +10002,7 @@
       <c r="C8" s="9"/>
     </row>
     <row r="9" spans="1:3" ht="15">
-      <c r="A9" s="23">
+      <c r="A9" s="21">
         <v>43100</v>
       </c>
       <c r="B9" s="1">
@@ -10006,7 +10011,7 @@
       <c r="C9" s="1"/>
     </row>
     <row r="10" spans="1:3" ht="15">
-      <c r="A10" s="23">
+      <c r="A10" s="21">
         <v>43465</v>
       </c>
       <c r="B10" s="1">
@@ -10015,7 +10020,7 @@
       <c r="C10" s="1"/>
     </row>
     <row r="11" spans="1:3" ht="15">
-      <c r="A11" s="23">
+      <c r="A11" s="21">
         <v>43830</v>
       </c>
       <c r="B11" s="1">
@@ -10029,8 +10034,8 @@
         <v>0.21737194569158902</v>
       </c>
     </row>
-    <row r="29" spans="1:24">
-      <c r="A29" s="24" t="s">
+    <row r="29" spans="1:26">
+      <c r="A29" s="22" t="s">
         <v>124</v>
       </c>
       <c r="B29" t="s">
@@ -10055,23 +10060,26 @@
         <v>131</v>
       </c>
       <c r="N29" t="s">
+        <v>138</v>
+      </c>
+      <c r="P29" t="s">
         <v>132</v>
       </c>
-      <c r="P29" t="s">
+      <c r="R29" t="s">
         <v>133</v>
       </c>
-      <c r="R29" t="s">
+      <c r="T29" t="s">
         <v>134</v>
       </c>
-      <c r="T29" t="s">
+      <c r="V29" t="s">
         <v>137</v>
       </c>
-      <c r="V29" t="s">
+      <c r="X29" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="30" spans="1:24" ht="15">
-      <c r="A30" s="23">
+    <row r="30" spans="1:26" ht="15">
+      <c r="A30" s="21">
         <v>40543</v>
       </c>
       <c r="B30" s="9">
@@ -10083,22 +10091,24 @@
       <c r="I30" s="2"/>
       <c r="K30" s="2"/>
       <c r="M30" s="2"/>
+      <c r="N30" s="2"/>
       <c r="O30" s="2"/>
       <c r="Q30" s="2"/>
       <c r="S30" s="2"/>
-      <c r="T30" s="25"/>
       <c r="U30" s="2"/>
-      <c r="V30" s="1">
-        <f t="shared" ref="V30:V38" si="0">T30+R30+P30+N30+L30+J30+F30+D30+B30+H30</f>
+      <c r="V30" s="23"/>
+      <c r="W30" s="2"/>
+      <c r="X30" s="1">
+        <f t="shared" ref="X30:X38" si="0">V30+T30+R30+P30+L30+J30+F30+D30+B30+H30</f>
         <v>444756700</v>
       </c>
-      <c r="W30" s="9">
+      <c r="Y30" s="9">
         <v>444756700</v>
       </c>
-      <c r="X30" s="9"/>
-    </row>
-    <row r="31" spans="1:24" ht="15">
-      <c r="A31" s="23">
+      <c r="Z30" s="9"/>
+    </row>
+    <row r="31" spans="1:26" ht="15">
+      <c r="A31" s="21">
         <v>40908</v>
       </c>
       <c r="B31" s="9">
@@ -10110,22 +10120,24 @@
       <c r="I31" s="2"/>
       <c r="K31" s="2"/>
       <c r="M31" s="2"/>
+      <c r="N31" s="2"/>
       <c r="O31" s="2"/>
       <c r="Q31" s="2"/>
       <c r="S31" s="2"/>
-      <c r="T31" s="25"/>
       <c r="U31" s="2"/>
-      <c r="V31" s="1">
+      <c r="V31" s="23"/>
+      <c r="W31" s="2"/>
+      <c r="X31" s="1">
         <f t="shared" si="0"/>
         <v>504532200</v>
       </c>
-      <c r="W31" s="9">
+      <c r="Y31" s="9">
         <v>504532200</v>
       </c>
-      <c r="X31" s="9"/>
-    </row>
-    <row r="32" spans="1:24" ht="15">
-      <c r="A32" s="23">
+      <c r="Z31" s="9"/>
+    </row>
+    <row r="32" spans="1:26" ht="15">
+      <c r="A32" s="21">
         <v>41274</v>
       </c>
       <c r="B32" s="9">
@@ -10137,22 +10149,24 @@
       <c r="I32" s="2"/>
       <c r="K32" s="2"/>
       <c r="M32" s="2"/>
+      <c r="N32" s="2"/>
       <c r="O32" s="2"/>
       <c r="Q32" s="2"/>
       <c r="S32" s="2"/>
-      <c r="T32" s="25"/>
       <c r="U32" s="2"/>
-      <c r="V32" s="1">
+      <c r="V32" s="23"/>
+      <c r="W32" s="2"/>
+      <c r="X32" s="1">
         <f t="shared" si="0"/>
         <v>586157100</v>
       </c>
-      <c r="W32" s="9">
+      <c r="Y32" s="9">
         <v>586157100</v>
       </c>
-      <c r="X32" s="9"/>
-    </row>
-    <row r="33" spans="1:24" ht="15">
-      <c r="A33" s="23">
+      <c r="Z32" s="9"/>
+    </row>
+    <row r="33" spans="1:26" ht="15">
+      <c r="A33" s="21">
         <v>41639</v>
       </c>
       <c r="B33" s="9">
@@ -10167,30 +10181,32 @@
       <c r="I33" s="2"/>
       <c r="K33" s="2"/>
       <c r="M33" s="2"/>
+      <c r="N33" s="2"/>
       <c r="O33" s="2"/>
-      <c r="P33" s="4">
-        <v>3818769.58</v>
-      </c>
       <c r="Q33" s="2"/>
       <c r="R33" s="4">
+        <v>3818769.58</v>
+      </c>
+      <c r="S33" s="2"/>
+      <c r="T33" s="4">
         <v>12264150.6</v>
       </c>
-      <c r="S33" s="2"/>
-      <c r="T33" s="25">
+      <c r="U33" s="2"/>
+      <c r="V33" s="23">
         <v>43477134</v>
       </c>
-      <c r="U33" s="2"/>
-      <c r="V33" s="1">
+      <c r="W33" s="2"/>
+      <c r="X33" s="1">
         <f t="shared" si="0"/>
         <v>678715900</v>
       </c>
-      <c r="W33" s="9">
+      <c r="Y33" s="9">
         <v>678715900</v>
       </c>
-      <c r="X33" s="9"/>
-    </row>
-    <row r="34" spans="1:24" ht="15">
-      <c r="A34" s="23">
+      <c r="Z33" s="9"/>
+    </row>
+    <row r="34" spans="1:26" ht="15">
+      <c r="A34" s="21">
         <v>42004</v>
       </c>
       <c r="B34" s="9">
@@ -10219,32 +10235,34 @@
       </c>
       <c r="K34" s="2"/>
       <c r="M34" s="2"/>
+      <c r="N34" s="2"/>
       <c r="O34" s="2"/>
-      <c r="P34" s="4">
+      <c r="Q34" s="2"/>
+      <c r="R34" s="4">
         <v>17516318.469999999</v>
       </c>
-      <c r="Q34" s="2">
+      <c r="S34" s="2">
         <v>1.8700000000000001E-2</v>
       </c>
-      <c r="R34" s="4">
+      <c r="T34" s="4">
         <v>10808503.359999999</v>
       </c>
-      <c r="S34" s="2">
+      <c r="U34" s="2">
         <v>1.15E-2</v>
       </c>
-      <c r="T34" s="25"/>
-      <c r="U34" s="2"/>
-      <c r="V34" s="1">
+      <c r="V34" s="23"/>
+      <c r="W34" s="2"/>
+      <c r="X34" s="1">
         <f t="shared" si="0"/>
         <v>935119130.20000005</v>
       </c>
-      <c r="W34" s="9">
+      <c r="Y34" s="9">
         <v>935119100</v>
       </c>
-      <c r="X34" s="9"/>
-    </row>
-    <row r="35" spans="1:24" ht="15">
-      <c r="A35" s="23">
+      <c r="Z34" s="9"/>
+    </row>
+    <row r="35" spans="1:26" ht="15">
+      <c r="A35" s="21">
         <v>42369</v>
       </c>
       <c r="B35" s="9">
@@ -10273,37 +10291,39 @@
       </c>
       <c r="K35" s="2"/>
       <c r="M35" s="2"/>
-      <c r="N35" s="4">
+      <c r="N35" s="2"/>
+      <c r="O35" s="2"/>
+      <c r="P35" s="4">
         <v>369099362.92000002</v>
       </c>
-      <c r="O35" s="2">
+      <c r="Q35" s="2">
         <v>0.21779999999999999</v>
       </c>
-      <c r="P35" s="4">
+      <c r="R35" s="4">
         <v>43827382.159999996</v>
       </c>
-      <c r="Q35" s="2">
+      <c r="S35" s="2">
         <v>2.5899999999999999E-2</v>
       </c>
-      <c r="R35" s="4">
+      <c r="T35" s="4">
         <v>17063305.18</v>
       </c>
-      <c r="S35" s="2">
+      <c r="U35" s="2">
         <v>1.01E-2</v>
       </c>
-      <c r="T35" s="25"/>
-      <c r="U35" s="2"/>
-      <c r="V35" s="1">
+      <c r="V35" s="23"/>
+      <c r="W35" s="2"/>
+      <c r="X35" s="1">
         <f t="shared" si="0"/>
         <v>1690911520</v>
       </c>
-      <c r="W35" s="9">
+      <c r="Y35" s="9">
         <v>1694514000</v>
       </c>
-      <c r="X35" s="9"/>
-    </row>
-    <row r="36" spans="1:24" ht="15">
-      <c r="A36" s="23">
+      <c r="Z35" s="9"/>
+    </row>
+    <row r="36" spans="1:26" ht="15">
+      <c r="A36" s="21">
         <v>42735</v>
       </c>
       <c r="B36" s="9">
@@ -10332,41 +10352,43 @@
       </c>
       <c r="K36" s="2"/>
       <c r="M36" s="2"/>
-      <c r="N36" s="4">
+      <c r="N36" s="2"/>
+      <c r="O36" s="2"/>
+      <c r="P36" s="4">
         <v>1090212510.98</v>
       </c>
-      <c r="O36" s="2">
+      <c r="Q36" s="2">
         <v>0.4123</v>
       </c>
-      <c r="P36" s="4">
+      <c r="R36" s="4">
         <v>60018274.359999999</v>
       </c>
-      <c r="Q36" s="2">
+      <c r="S36" s="2">
         <v>2.2700000000000001E-2</v>
       </c>
-      <c r="R36" s="4">
+      <c r="T36" s="4">
         <v>123204706.73999999</v>
       </c>
-      <c r="S36" s="2">
+      <c r="U36" s="2">
         <v>4.6600000000000003E-2</v>
       </c>
-      <c r="T36" s="25">
+      <c r="V36" s="23">
         <v>3611972.78</v>
       </c>
-      <c r="U36" s="2">
+      <c r="W36" s="2">
         <v>1.4E-3</v>
       </c>
-      <c r="V36" s="1">
+      <c r="X36" s="1">
         <f t="shared" si="0"/>
         <v>2644228901.6500001</v>
       </c>
-      <c r="W36" s="9">
+      <c r="Y36" s="9">
         <v>2644229000</v>
       </c>
-      <c r="X36" s="9"/>
-    </row>
-    <row r="37" spans="1:24" ht="15">
-      <c r="A37" s="23">
+      <c r="Z36" s="9"/>
+    </row>
+    <row r="37" spans="1:26" ht="15">
+      <c r="A37" s="21">
         <v>43100</v>
       </c>
       <c r="B37" s="1">
@@ -10395,37 +10417,39 @@
       </c>
       <c r="K37" s="2"/>
       <c r="M37" s="2"/>
-      <c r="N37" s="4">
+      <c r="N37" s="2"/>
+      <c r="O37" s="2"/>
+      <c r="P37" s="4">
         <v>1240133995.3599999</v>
       </c>
-      <c r="O37" s="2">
+      <c r="Q37" s="2">
         <v>0.41010000000000002</v>
       </c>
-      <c r="P37" s="4">
+      <c r="R37" s="4">
         <v>120577904.09999999</v>
       </c>
-      <c r="Q37" s="2">
+      <c r="S37" s="2">
         <v>3.9899999999999998E-2</v>
       </c>
-      <c r="R37" s="4">
+      <c r="T37" s="4">
         <v>163152259.15000001</v>
       </c>
-      <c r="S37" s="2">
+      <c r="U37" s="2">
         <v>5.3999999999999999E-2</v>
       </c>
-      <c r="T37" s="25"/>
-      <c r="U37" s="2"/>
-      <c r="V37" s="1">
+      <c r="V37" s="23"/>
+      <c r="W37" s="2"/>
+      <c r="X37" s="1">
         <f t="shared" si="0"/>
         <v>3023831231.2600002</v>
       </c>
-      <c r="W37" s="1">
+      <c r="Y37" s="1">
         <v>3023831000</v>
       </c>
-      <c r="X37" s="1"/>
-    </row>
-    <row r="38" spans="1:24" ht="15">
-      <c r="A38" s="23">
+      <c r="Z37" s="1"/>
+    </row>
+    <row r="38" spans="1:26" ht="15">
+      <c r="A38" s="21">
         <v>43465</v>
       </c>
       <c r="B38" s="1">
@@ -10459,41 +10483,43 @@
         <v>1.3299999999999999E-2</v>
       </c>
       <c r="M38" s="2"/>
-      <c r="N38" s="4">
+      <c r="N38" s="2"/>
+      <c r="O38" s="2"/>
+      <c r="P38" s="4">
         <v>1233596141.03</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>0.38419999999999999</v>
       </c>
-      <c r="P38" s="4">
+      <c r="R38" s="4">
         <v>173487760.90000001</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>5.3999999999999999E-2</v>
       </c>
-      <c r="R38" s="4">
+      <c r="T38" s="4">
         <v>126677207.77</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>3.9399999999999998E-2</v>
       </c>
-      <c r="T38" s="25">
+      <c r="V38" s="23">
         <v>3434208.29</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>1.1000000000000001E-3</v>
       </c>
-      <c r="V38" s="1">
+      <c r="X38" s="1">
         <f t="shared" si="0"/>
         <v>3211192814.48</v>
       </c>
-      <c r="W38" s="1">
+      <c r="Y38" s="1">
         <v>3211193000</v>
       </c>
-      <c r="X38" s="1"/>
-    </row>
-    <row r="39" spans="1:24" ht="15">
-      <c r="A39" s="23">
+      <c r="Z38" s="1"/>
+    </row>
+    <row r="39" spans="1:26" ht="15">
+      <c r="A39" s="21">
         <v>43830</v>
       </c>
       <c r="B39" s="1">
@@ -10527,38 +10553,84 @@
       <c r="M39" s="2">
         <v>2.5100000000000001E-2</v>
       </c>
-      <c r="N39" s="4">
+      <c r="N39" s="2"/>
+      <c r="O39" s="2"/>
+      <c r="P39" s="4">
         <v>383412284.25</v>
       </c>
-      <c r="O39" s="2">
+      <c r="Q39" s="2">
         <v>0.14680000000000001</v>
       </c>
-      <c r="P39" s="4">
+      <c r="R39" s="4">
         <v>180426687.71000001</v>
       </c>
-      <c r="Q39" s="2">
+      <c r="S39" s="2">
         <v>6.9099999999999995E-2</v>
       </c>
-      <c r="R39" s="4">
+      <c r="T39" s="4">
         <v>173281416.46000001</v>
       </c>
-      <c r="S39" s="2">
+      <c r="U39" s="2">
         <v>6.6299999999999998E-2</v>
       </c>
-      <c r="T39" s="25">
+      <c r="V39" s="23">
         <v>3464886.35</v>
       </c>
-      <c r="U39" s="2">
+      <c r="W39" s="2">
         <v>1.2999999999999999E-3</v>
       </c>
-      <c r="V39" s="1">
-        <f>T39+R39+P39+N39+L39+J39+F39+D39+B39+H39</f>
+      <c r="X39" s="1">
+        <f>V39+T39+R39+P39+L39+J39+F39+D39+B39+H39</f>
         <v>2611753208.8599997</v>
       </c>
-      <c r="W39" s="1">
+      <c r="Y39" s="1">
         <v>2611753000</v>
       </c>
-      <c r="X39" s="1"/>
+      <c r="Z39" s="1"/>
+    </row>
+    <row r="40" spans="1:26" ht="15">
+      <c r="A40" s="21">
+        <v>43831</v>
+      </c>
+      <c r="B40" s="4">
+        <v>265487381.19999999</v>
+      </c>
+      <c r="D40" s="4">
+        <v>118683102.2</v>
+      </c>
+      <c r="F40" s="4">
+        <v>132544773.13</v>
+      </c>
+      <c r="H40" s="4">
+        <v>25197742.079999998</v>
+      </c>
+      <c r="J40" s="4">
+        <v>53799653.289999999</v>
+      </c>
+      <c r="L40" s="4">
+        <v>16480189</v>
+      </c>
+      <c r="M40" s="2">
+        <v>2.5100000000000001E-2</v>
+      </c>
+      <c r="N40" s="4">
+        <v>24722673.57</v>
+      </c>
+      <c r="R40" s="4">
+        <v>43316562.229999997</v>
+      </c>
+      <c r="S40" s="2">
+        <v>6.9099999999999995E-2</v>
+      </c>
+      <c r="T40" s="4">
+        <v>179877358.43000001</v>
+      </c>
+      <c r="X40" s="4">
+        <v>860109435.13</v>
+      </c>
+      <c r="Y40" s="4">
+        <v>860109435.13</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -10590,7 +10662,7 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="15">
-      <c r="A2" s="23">
+      <c r="A2" s="21">
         <v>40543</v>
       </c>
       <c r="B2" s="2">
@@ -10598,7 +10670,7 @@
       </c>
     </row>
     <row r="3" spans="1:2" ht="15">
-      <c r="A3" s="23">
+      <c r="A3" s="21">
         <v>40908</v>
       </c>
       <c r="B3" s="2">
@@ -10606,7 +10678,7 @@
       </c>
     </row>
     <row r="4" spans="1:2" ht="15">
-      <c r="A4" s="23">
+      <c r="A4" s="21">
         <v>41274</v>
       </c>
       <c r="B4" s="2">
@@ -10614,7 +10686,7 @@
       </c>
     </row>
     <row r="5" spans="1:2" ht="15">
-      <c r="A5" s="23">
+      <c r="A5" s="21">
         <v>41639</v>
       </c>
       <c r="B5" s="2">
@@ -10622,7 +10694,7 @@
       </c>
     </row>
     <row r="6" spans="1:2" ht="15">
-      <c r="A6" s="23">
+      <c r="A6" s="21">
         <v>42004</v>
       </c>
       <c r="B6" s="2">
@@ -10630,7 +10702,7 @@
       </c>
     </row>
     <row r="7" spans="1:2" ht="15">
-      <c r="A7" s="23">
+      <c r="A7" s="21">
         <v>42369</v>
       </c>
       <c r="B7" s="2">
@@ -10638,7 +10710,7 @@
       </c>
     </row>
     <row r="8" spans="1:2" ht="15">
-      <c r="A8" s="23">
+      <c r="A8" s="21">
         <v>42735</v>
       </c>
       <c r="B8" s="2">
@@ -10646,7 +10718,7 @@
       </c>
     </row>
     <row r="9" spans="1:2" ht="15">
-      <c r="A9" s="23">
+      <c r="A9" s="21">
         <v>43100</v>
       </c>
       <c r="B9" s="2">
@@ -10654,7 +10726,7 @@
       </c>
     </row>
     <row r="10" spans="1:2" ht="15">
-      <c r="A10" s="23">
+      <c r="A10" s="21">
         <v>43465</v>
       </c>
       <c r="B10" s="2">
@@ -10662,7 +10734,7 @@
       </c>
     </row>
     <row r="11" spans="1:2" ht="15">
-      <c r="A11" s="23">
+      <c r="A11" s="21">
         <v>43830</v>
       </c>
       <c r="B11" s="2">
